--- a/notes/ProjectStates.xlsx
+++ b/notes/ProjectStates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="68800" windowHeight="28800" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="17200" yWindow="0" windowWidth="34400" windowHeight="28800" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Intro--Info" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2807" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2769" uniqueCount="249">
   <si>
     <t>Commits</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Dead but still interesting</t>
-  </si>
-  <si>
-    <t>Stable Maintenance phase, not much new development</t>
   </si>
   <si>
     <t>Statement for Web</t>
@@ -437,9 +434,6 @@
     <t>Few created issues; Are people aware of this project? If many are closed (see below), means people /have been/ aware but no new issues are created. Feature-stable?</t>
   </si>
   <si>
-    <t>Many tags, leading up to a release? Not much focus on reacting to user needs.</t>
-  </si>
-  <si>
     <t>Many bug-fixes, possibly using Semantic Versioning. Maybe reuse block from above ("some" commits and "some" tags)</t>
   </si>
   <si>
@@ -474,9 +468,6 @@
   </si>
   <si>
     <t>Few new issues are created, the project may not have reached a usable state yet.</t>
-  </si>
-  <si>
-    <t>Created many issues to generate ideas for project in the beginning (brainstorming through isssue tracker)</t>
   </si>
   <si>
     <t>Issues are being closed, but not many new issues are created. The issue tracker may have been used as a brainstorming tool.</t>
@@ -559,12 +550,231 @@
   <si>
     <t>There is a high level of ongoing development activity. The component may recently have had a release.</t>
   </si>
+  <si>
+    <t>Few issues are created or closed, indicating low levels of support or that the product is of so high quality that no new issues need to be created.</t>
+  </si>
+  <si>
+    <t>Project is in a maintenance phase with many people reporting issues but many developers are also fixing them. Unknown if the project is being forked.</t>
+  </si>
+  <si>
+    <t>Project in a maintenance phase for sure but how can you resolve issues without committing new code? This implies there are SOME commits still, not NO commits. MSV: By closing with WONTFIX</t>
+  </si>
+  <si>
+    <t>There is some, but still little, new development in this project.</t>
+  </si>
+  <si>
+    <t>There is some, but still little, new development in this project. People still fork it.</t>
+  </si>
+  <si>
+    <t>The project seems to be maintained but some fork may have taken over.</t>
+  </si>
+  <si>
+    <t>Maintenance phase but consider looking elsewhere for similar branches of the component with additional/better functionality</t>
+  </si>
+  <si>
+    <t>Few new issues are created, but many old are closed. Do not expect new development but you may get support for your issues.</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>Do not expect new development, but the project is still popular.</t>
+  </si>
+  <si>
+    <t>Seems this project could be dying, the issues go up but few are fixed and there might be a rise in the forks. If we had the derivate of the number of forks here instead of few, some, many I'd say that a positive derivate implies a dying project.</t>
+  </si>
+  <si>
+    <t>Maintenance going on. Other forks may exist but unknown.</t>
+  </si>
+  <si>
+    <t>The project is in a stable maintenance phase, but it's popularity is unknown.</t>
+  </si>
+  <si>
+    <t>The project is in a stable maintenance phase, and the number of forks indicate that the project is still popular.</t>
+  </si>
+  <si>
+    <t>Dying? Not much going on so I'd say this pattern is more likely in the end of a project than in the beginning.</t>
+  </si>
+  <si>
+    <t>Few commits and many tags/versions just seems implausible?</t>
+  </si>
+  <si>
+    <t>Maintenance, maybe stable software with some good functionality. Perhaps used by quite a lot of users, could be correlated against number of downloads. This pattern plus many downloads I think would be a solid component for the long-term.</t>
+  </si>
+  <si>
+    <t>Solid component to build upon since the developers as well as many other teams are using it to build on. However, care should be taken that there are issues to deal with, both explored and unexplored ones.</t>
+  </si>
+  <si>
+    <t>Maintenance and the project could be on-top of it but there might be stronger variants. Consider checking other forks</t>
+  </si>
+  <si>
+    <t>Semi-stable project, some new updates are coming but not a popular project.</t>
+  </si>
+  <si>
+    <t>Some work being done but also issues rising, coupled with a decent amount of forks the project might have gone elsewhere.</t>
+  </si>
+  <si>
+    <t>Development is likely to continue, but you should also check recent forks.</t>
+  </si>
+  <si>
+    <t>More issues coming in than work being done and focus on new development which increases issues further. However, the project seems very interesting and other forks may thereforebe worth exploring.</t>
+  </si>
+  <si>
+    <t>There is a high level of ongoing development activity. The project may be working on a new release.</t>
+  </si>
+  <si>
+    <t>Focus on development but also maintenance to make sure there are not too many issues at once. Could be a good solution to use in the long-term</t>
+  </si>
+  <si>
+    <t>Focus on development but also maintenance, good for the long-term. The project is also popular, implying that new development is either easy on the component or that it's current direction is not what users want.</t>
+  </si>
+  <si>
+    <t>There is a high level of ongoing development activity. There are many forks, implying that new development is either easy on the component or that it's current direction is not what users want.</t>
+  </si>
+  <si>
+    <t>This component is in the middle of its lifecycle. More functionality may be available in one of the forks.</t>
+  </si>
+  <si>
+    <t>A lot of development and maintenance but also issues! Popularity is also low so this could either be a rising star or a very niesch component. Some caution should be taken.</t>
+  </si>
+  <si>
+    <t>Not a popular project, but a lot of development and maintenance is being conducted. Could imply a maintenance phase after which sought functionality will be suitable.</t>
+  </si>
+  <si>
+    <t>Popular project going through new development and maintenance. Some issues, but they are being handled implying that the project can provide suitable support and develop a useful/interesting component.</t>
+  </si>
+  <si>
+    <t>Development is likely to continue, but it is unclear how well known or popular the product is.</t>
+  </si>
+  <si>
+    <t>A lot of new development, some issues but they are at least being taken care of. Thus, support can be expected. However, the project might still be quite new given that it has few forks or simply very specialized or niesched functionality that others can't/don't want to build upon.</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>Agreement Counting</t>
+  </si>
+  <si>
+    <t>Abandon ship! Take the code elsewhere and do something with it, here there be bugs! (emil) The project is in a stable maintenance mode. It is a project maybe at risk of becoming phased out. Forks should be analyzed.(efi)</t>
+  </si>
+  <si>
+    <t>The project is understaffed and in a stable maintenance mode. It is still a popular project, but may be at risk of becoming phased out due to understaffing.</t>
+  </si>
+  <si>
+    <t>There is a stable issue resolution in this project, many created and closed issues, on-going in maintenance healthy project.</t>
+  </si>
+  <si>
+    <t>The project is in a healthy maintenance phase.</t>
+  </si>
+  <si>
+    <t>The project might be understaffed, there's interest to it, but lower support than needed.</t>
+  </si>
+  <si>
+    <t>There is little new development in this project; it may be understaffed.</t>
+  </si>
+  <si>
+    <t>No implementation, few fixed issues and issues potentially on the rise. Abandon ship! Goto other fork? (emil) The project might be understaffed, there's interest to it, some forks exist, but lower support than needed. (efi)</t>
+  </si>
+  <si>
+    <t>This component is at risk of becoming phased out. Some of the forks may have continued the project.</t>
+  </si>
+  <si>
+    <t>This component is understaffed and/or at risk of becoming phased out.</t>
+  </si>
+  <si>
+    <t>Project with some development on-going.</t>
+  </si>
+  <si>
+    <t>There is some new development in this project, however the number of forks is unknown.</t>
+  </si>
+  <si>
+    <t>Eagerness to close off more issues than the issues created (at a higher rate).</t>
+  </si>
+  <si>
+    <t>The project is probably moving to maintenance phase.</t>
+  </si>
+  <si>
+    <t>The project is at an on-going development phase, work might be continued in the forks, need more support (running understaffed).(efi)</t>
+  </si>
+  <si>
+    <t>Many tags, leading up to a release? Not much focus on reacting to user needs.(msv) Nothing can be predicted about this project.(efi)</t>
+  </si>
+  <si>
+    <t>A lot of maintenance versions are being released with little new development. Hence, project currently focused on improving quality. (emil) The project is in a stable development mode.(efi)</t>
+  </si>
+  <si>
+    <t>The project is having staff working on new development and moving to maintenance.(efi)</t>
+  </si>
+  <si>
+    <t>Ths project is rapidly going to maintenance phase.(efi)</t>
+  </si>
+  <si>
+    <t>The project is in a stable development mode.</t>
+  </si>
+  <si>
+    <t>There is a lot of new development in this project, however the number of forks is unknown.</t>
+  </si>
+  <si>
+    <t>Some new issues are created, however the level of support (response) is unknown.</t>
+  </si>
+  <si>
+    <t>Not enough is known about support, however development is on-going.</t>
+  </si>
+  <si>
+    <t>Project in rapid evoluttion.</t>
+  </si>
+  <si>
+    <t>Many issues are being closed at (roughly) the same rate as they are being created showing just enough support.</t>
+  </si>
+  <si>
+    <t>The project is in stable development phase.</t>
+  </si>
+  <si>
+    <t>Stable Maintenance phase, not much new development(msv) This could also be an early project, with a only few users. It is dificult to  know without timing information on the project (seve)</t>
+  </si>
+  <si>
+    <t>Stable maintance release, project with more users and finding bugs; closing as many issues as possible</t>
+  </si>
+  <si>
+    <t>Stable project. Starting point for other projects - Possibly closing issues which are being opened(seve)</t>
+  </si>
+  <si>
+    <t>Stable project. Starting point for other projects - fixing critical/security bugs only?(seve)</t>
+  </si>
+  <si>
+    <t>Not sure what this would mean; You are tagging the same commit? I think maybe re-use the definitions from above.(msv) Multiple tags on the same commit. No users yet. Working on release candidates? (seve)</t>
+  </si>
+  <si>
+    <t>Multiple tags on the same commit.  Has a few users who report issues. Beta release?(seve)</t>
+  </si>
+  <si>
+    <t>Multiple issues are fixed with one commit. Possibly introducing new bugs. (seve)</t>
+  </si>
+  <si>
+    <t>Created many issues to generate ideas for project in the beginning (brainstorming through isssue tracker) (msv) Project with some development on-going.(efi) Fixing the project issues before the public release(Seve)</t>
+  </si>
+  <si>
+    <t>Beta-release? User are being invited to use the tool and issues are being collected while some development is being done</t>
+  </si>
+  <si>
+    <t>Few created issues and some commits, few closed issues, indicates that the project is at a slow upstart or in a shutdown phase.(efi) closed Beta ? Issues are closed at roughly the same rate at tjey are opened. Lots of commits. (Seve)</t>
+  </si>
+  <si>
+    <t>Increased activity towards maintenance. More issues are closed than opened. Just after a private beta release(Seve)</t>
+  </si>
+  <si>
+    <t>Lots of development activity which generates few bugs ; towards the end of a beta-release(Seve)</t>
+  </si>
+  <si>
+    <t>Beta-release? Ramping up fixing the issues towards the public release(Seve)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -619,8 +829,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,6 +856,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -769,7 +1006,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="472">
+  <cellStyleXfs count="522">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1242,8 +1479,58 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1270,8 +1557,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="472">
+  <cellStyles count="522">
     <cellStyle name="Explanatory Text" xfId="161" builtinId="53"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -1507,6 +1810,31 @@
     <cellStyle name="Followed Hyperlink" xfId="467" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="469" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="477" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="479" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="481" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="483" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="485" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="487" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="489" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="491" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="493" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="495" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="497" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="499" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="501" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="503" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="505" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="507" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="513" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="515" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="517" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="519" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="521" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="66" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -1743,680 +2071,34 @@
     <cellStyle name="Hyperlink" xfId="466" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="468" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="470" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="472" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="474" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="476" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="478" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="480" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="482" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="484" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="486" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="488" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="490" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="492" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="494" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="496" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="498" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="500" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="502" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="504" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="506" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="508" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="510" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="512" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="514" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="516" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="518" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="520" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="97">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -3161,306 +2843,306 @@
   <sheetData>
     <row r="2" spans="1:9" ht="20" thickBot="1">
       <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16" thickTop="1">
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G4" s="12">
         <v>1</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9">
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="12">
         <f>G4+1</f>
         <v>2</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9">
       <c r="D6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" ref="G6:G15" si="0">G5+1</f>
         <v>3</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9">
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" t="s">
         <v>79</v>
-      </c>
-      <c r="E9" t="s">
-        <v>80</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="16"/>
@@ -3468,77 +3150,77 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="20" thickBot="1">
       <c r="G23" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -3546,16 +3228,16 @@
     </row>
     <row r="24" spans="2:10" ht="18" thickTop="1" thickBot="1">
       <c r="G24" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>95</v>
-      </c>
       <c r="J24" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="16" thickTop="1">
@@ -3563,30 +3245,30 @@
         <v>0</v>
       </c>
       <c r="H25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="13" t="s">
         <v>97</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>98</v>
       </c>
       <c r="J25" s="14"/>
     </row>
     <row r="26" spans="2:10">
       <c r="G26" s="12"/>
       <c r="H26" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" s="13" t="s">
         <v>99</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>100</v>
       </c>
       <c r="J26" s="14"/>
     </row>
     <row r="27" spans="2:10">
       <c r="G27" s="12"/>
       <c r="H27" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" s="13" t="s">
         <v>101</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>102</v>
       </c>
       <c r="J27" s="14"/>
     </row>
@@ -3595,32 +3277,32 @@
         <v>1</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="2:10">
       <c r="G29" s="12"/>
       <c r="H29" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J29" s="14"/>
     </row>
     <row r="30" spans="2:10">
       <c r="G30" s="12"/>
       <c r="H30" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J30" s="14"/>
     </row>
@@ -3629,62 +3311,62 @@
         <v>3</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J31" s="14"/>
     </row>
     <row r="32" spans="2:10">
       <c r="G32" s="12"/>
       <c r="H32" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J32" s="14"/>
     </row>
     <row r="33" spans="7:10">
       <c r="G33" s="12"/>
       <c r="H33" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J33" s="14"/>
     </row>
     <row r="34" spans="7:10">
       <c r="G34" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J34" s="14"/>
     </row>
     <row r="35" spans="7:10">
       <c r="G35" s="12"/>
       <c r="H35" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J35" s="14"/>
     </row>
     <row r="36" spans="7:10">
       <c r="G36" s="12"/>
       <c r="H36" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J36" s="14"/>
     </row>
@@ -3693,32 +3375,32 @@
         <v>2</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="7:10">
       <c r="G38" s="12"/>
       <c r="H38" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J38" s="14"/>
     </row>
     <row r="39" spans="7:10">
       <c r="G39" s="12"/>
       <c r="H39" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J39" s="14"/>
     </row>
@@ -3730,7 +3412,7 @@
     </row>
     <row r="41" spans="7:10">
       <c r="G41" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
@@ -3738,7 +3420,7 @@
     </row>
     <row r="42" spans="7:10">
       <c r="G42" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
@@ -3766,8 +3448,8 @@
   <dimension ref="A1:V399"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G89" sqref="G89"/>
+      <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K374" sqref="K374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3797,31 +3479,31 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="M1" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="16" thickTop="1">
@@ -3841,7 +3523,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" s="21"/>
       <c r="M2" s="19" t="str">
@@ -3934,8 +3616,8 @@
       <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J4" t="s">
-        <v>32</v>
+      <c r="J4">
+        <v>1</v>
       </c>
       <c r="M4" s="19" t="str">
         <f t="shared" si="0"/>
@@ -3986,17 +3668,17 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H5" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="I5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M5" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>There is little new development in this project. Few issues are created or closed, indicating low levels of support. The project may be abandoned.</v>
+        <v>There is little new development in this project. Few issues are created or closed, indicating low levels of support or that the product is of so high quality that no new issues need to be created. The project may be abandoned.</v>
       </c>
       <c r="Q5">
         <f t="shared" si="1"/>
@@ -4043,17 +3725,20 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H6" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="I6" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
       </c>
       <c r="M6" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>There is little new development in this project. Few issues are created or closed, indicating low levels of support. One of the recent forks may have taken over.</v>
+        <v>There is little new development in this project. Few issues are created or closed, indicating low levels of support or that the product is of so high quality that no new issues need to be created. One of the recent forks may have taken over.</v>
       </c>
       <c r="Q6">
         <f t="shared" si="1"/>
@@ -4100,17 +3785,17 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H7" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="I7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M7" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>There is little new development in this project, but people still fork it. Few issues are created or closed, indicating low levels of support. Do not expect new development.</v>
+        <v>There is little new development in this project, but people still fork it. Few issues are created or closed, indicating low levels of support or that the product is of so high quality that no new issues need to be created. Do not expect new development.</v>
       </c>
       <c r="Q7">
         <f t="shared" si="1"/>
@@ -4154,13 +3839,13 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" t="s">
-        <v>32</v>
+        <v>236</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
       </c>
       <c r="M8" s="19" t="str">
         <f t="shared" si="0"/>
@@ -4208,17 +3893,17 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="M9" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>There is little new development in this project. Issues are being closed, but not many new issues are created. The project is in a stable maintenance phase.</v>
+        <v>There is little new development in this project. Issues are being closed, but not many new issues are created. The project may be abandoned.</v>
       </c>
       <c r="Q9">
         <f t="shared" si="1"/>
@@ -4262,17 +3947,17 @@
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="M10" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>There is little new development in this project. Issues are being closed, but not many new issues are created. The project is in a stable maintenance phase.</v>
+        <v>There is little new development in this project. Issues are being closed, but not many new issues are created. One of the recent forks may have taken over.</v>
       </c>
       <c r="Q10">
         <f t="shared" si="1"/>
@@ -4316,17 +4001,17 @@
         <v>7</v>
       </c>
       <c r="G11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" t="s">
         <v>120</v>
       </c>
-      <c r="H11" t="s">
-        <v>121</v>
-      </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="M11" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>There is little new development in this project, but people still fork it. Issues are being closed, but not many new issues are created. The project is in a stable maintenance phase, and is still popular.</v>
+        <v>There is little new development in this project, but people still fork it. Issues are being closed, but not many new issues are created. Do not expect new development.</v>
       </c>
       <c r="Q11">
         <f t="shared" si="1"/>
@@ -4370,16 +4055,16 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
       </c>
       <c r="M12" s="19" t="str">
         <f t="shared" si="0"/>
@@ -4427,17 +4112,17 @@
         <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="M13" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>There is little new development in this project. Few new issues are created, but many old are closed. Do not expect new development. The project is in a stable maintenance phase.</v>
+        <v>There is little new development in this project. Few new issues are created, but many old are closed. Do not expect new development. The project may be abandoned.</v>
       </c>
       <c r="Q13">
         <f t="shared" si="1"/>
@@ -4481,17 +4166,17 @@
         <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I14" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="M14" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>There is little new development in this project. Few new issues are created, but many old are closed. Do not expect new development. The project is in a stable maintenance phase.</v>
+        <v>There is little new development in this project. Few new issues are created, but many old are closed. Do not expect new development. One of the recent forks may have taken over.</v>
       </c>
       <c r="Q14">
         <f t="shared" si="1"/>
@@ -4535,17 +4220,17 @@
         <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I15" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="M15" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>There is little new development in this project, but people still fork it. Few new issues are created, but many old are closed. Do not expect new development. The project is in a stable maintenance phase, and is still popular.</v>
+        <v>There is little new development in this project, but people still fork it. Few new issues are created, but many old are closed. Do not expect new development. Do not expect new development.</v>
       </c>
       <c r="Q15">
         <f t="shared" si="1"/>
@@ -4589,7 +4274,7 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M16" s="19" t="str">
         <f t="shared" si="0"/>
@@ -4682,16 +4367,16 @@
         <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I18" t="s">
-        <v>127</v>
-      </c>
-      <c r="J18" t="s">
-        <v>32</v>
+        <v>126</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
       </c>
       <c r="M18" s="19" t="str">
         <f t="shared" si="0"/>
@@ -4739,13 +4424,13 @@
         <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M19" s="19" t="str">
         <f t="shared" si="0"/>
@@ -4793,13 +4478,13 @@
         <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H20" t="s">
+        <v>128</v>
+      </c>
+      <c r="I20" t="s">
         <v>129</v>
-      </c>
-      <c r="I20" t="s">
-        <v>130</v>
       </c>
       <c r="M20" s="19" t="str">
         <f t="shared" si="0"/>
@@ -4892,13 +4577,13 @@
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M22" s="19" t="str">
         <f t="shared" si="0"/>
@@ -4946,13 +4631,13 @@
         <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M23" s="19" t="str">
         <f t="shared" si="0"/>
@@ -5000,13 +4685,13 @@
         <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M24" s="19" t="str">
         <f t="shared" si="0"/>
@@ -5053,8 +4738,11 @@
       <c r="E25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K25" t="s">
-        <v>32</v>
+      <c r="F25" t="s">
+        <v>237</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
       </c>
       <c r="M25" s="19" t="str">
         <f t="shared" si="0"/>
@@ -5102,13 +4790,13 @@
         <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M26" s="19" t="str">
         <f t="shared" si="0"/>
@@ -5139,7 +4827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" ht="60">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -5155,17 +4843,20 @@
       <c r="E27" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="F27" s="22" t="s">
+        <v>178</v>
+      </c>
       <c r="G27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I27" t="s">
-        <v>118</v>
-      </c>
-      <c r="L27" t="s">
-        <v>32</v>
+        <v>117</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
       </c>
       <c r="M27" s="19" t="str">
         <f t="shared" si="0"/>
@@ -5213,13 +4904,13 @@
         <v>7</v>
       </c>
       <c r="G28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M28" s="19" t="str">
         <f t="shared" si="0"/>
@@ -5357,13 +5048,13 @@
         <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M31" s="19" t="str">
         <f t="shared" si="0"/>
@@ -5411,13 +5102,13 @@
         <v>6</v>
       </c>
       <c r="G32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M32" s="19" t="str">
         <f t="shared" si="0"/>
@@ -5465,13 +5156,13 @@
         <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M33" s="19" t="str">
         <f t="shared" si="0"/>
@@ -5564,13 +5255,13 @@
         <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H35" t="s">
+        <v>133</v>
+      </c>
+      <c r="I35" t="s">
         <v>134</v>
-      </c>
-      <c r="I35" t="s">
-        <v>135</v>
       </c>
       <c r="M35" s="19" t="str">
         <f t="shared" si="0"/>
@@ -5618,13 +5309,13 @@
         <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H36" t="s">
+        <v>133</v>
+      </c>
+      <c r="I36" t="s">
         <v>134</v>
-      </c>
-      <c r="I36" t="s">
-        <v>135</v>
       </c>
       <c r="M36" s="19" t="str">
         <f t="shared" si="0"/>
@@ -5655,7 +5346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" ht="75">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -5671,27 +5362,30 @@
       <c r="E37" t="s">
         <v>7</v>
       </c>
+      <c r="F37" s="22" t="s">
+        <v>211</v>
+      </c>
       <c r="G37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I37" t="s">
-        <v>136</v>
-      </c>
-      <c r="J37" t="s">
-        <v>32</v>
-      </c>
-      <c r="K37" t="s">
-        <v>32</v>
-      </c>
-      <c r="L37" t="s">
-        <v>32</v>
+        <v>212</v>
+      </c>
+      <c r="J37">
+        <v>-1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
       </c>
       <c r="M37" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>There is little new development in this project, but people still fork it. Many new issues are created, and some are being closed but not at the same rate. The project is understaffed and in a stable maintenance mode. It is still a popular project, but may be at risk of becoming phased out.</v>
+        <v>There is little new development in this project, but people still fork it. Many new issues are created, and some are being closed but not at the same rate. The project is understaffed and in a stable maintenance mode. It is still a popular project, but may be at risk of becoming phased out due to understaffing.</v>
       </c>
       <c r="Q37">
         <f t="shared" si="1"/>
@@ -5718,7 +5412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" ht="45">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -5734,8 +5428,11 @@
       <c r="E38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L38" t="s">
-        <v>32</v>
+      <c r="F38" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
       </c>
       <c r="M38" s="19" t="str">
         <f t="shared" si="0"/>
@@ -5782,18 +5479,24 @@
       <c r="E39" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F39" t="s">
+        <v>213</v>
+      </c>
       <c r="G39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H39" t="s">
-        <v>131</v>
-      </c>
-      <c r="J39" t="s">
-        <v>32</v>
+        <v>130</v>
+      </c>
+      <c r="I39" t="s">
+        <v>214</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
       </c>
       <c r="M39" s="19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">There is little new development in this project. Issues are being closed at (roughly) the same rate as they are being created. </v>
+        <v>There is little new development in this project. Issues are being closed at (roughly) the same rate as they are being created. The project is in a healthy maintenance phase.</v>
       </c>
       <c r="Q39">
         <f t="shared" si="1"/>
@@ -5837,14 +5540,17 @@
         <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H40" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="I40" t="s">
+        <v>214</v>
       </c>
       <c r="M40" s="19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">There is little new development in this project. Issues are being closed at (roughly) the same rate as they are being created. </v>
+        <v>There is little new development in this project. Issues are being closed at (roughly) the same rate as they are being created. The project is in a healthy maintenance phase.</v>
       </c>
       <c r="Q40">
         <f t="shared" si="1"/>
@@ -5888,14 +5594,17 @@
         <v>7</v>
       </c>
       <c r="G41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H41" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="I41" t="s">
+        <v>214</v>
       </c>
       <c r="M41" s="19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">There is little new development in this project, but people still fork it. Issues are being closed at (roughly) the same rate as they are being created. </v>
+        <v>There is little new development in this project, but people still fork it. Issues are being closed at (roughly) the same rate as they are being created. The project is in a healthy maintenance phase.</v>
       </c>
       <c r="Q41">
         <f t="shared" si="1"/>
@@ -5939,7 +5648,7 @@
         <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M42" s="19" t="str">
         <f t="shared" si="0"/>
@@ -6077,17 +5786,17 @@
         <v>5</v>
       </c>
       <c r="G45" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="H45" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="I45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M45" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>There is little new development in this project. Few issues are created or closed, indicating low levels of support. Do not expect new development.</v>
+        <v>There is some, but still little, new development in this project. Few issues are created or closed, indicating low levels of support or that the product is of so high quality that no new issues need to be created. Do not expect new development.</v>
       </c>
       <c r="Q45">
         <f t="shared" si="1"/>
@@ -6131,20 +5840,20 @@
         <v>6</v>
       </c>
       <c r="G46" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="H46" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="I46" t="s">
-        <v>128</v>
-      </c>
-      <c r="L46" t="s">
-        <v>32</v>
+        <v>181</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
       </c>
       <c r="M46" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>There is little new development in this project. Few issues are created or closed, indicating low levels of support. One of the recent forks may have taken over.</v>
+        <v>There is some, but still little, new development in this project. Few issues are created or closed, indicating low levels of support or that the product is of so high quality that no new issues need to be created. The project seems to be maintained but some fork may have taken over.</v>
       </c>
       <c r="Q46">
         <f t="shared" si="1"/>
@@ -6187,21 +5896,24 @@
       <c r="E47" t="s">
         <v>7</v>
       </c>
+      <c r="F47" t="s">
+        <v>238</v>
+      </c>
       <c r="G47" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="H47" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="I47" t="s">
-        <v>130</v>
-      </c>
-      <c r="K47" t="s">
-        <v>32</v>
+        <v>129</v>
+      </c>
+      <c r="K47">
+        <v>-1</v>
       </c>
       <c r="M47" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>There is little new development in this project, but people still fork it. Few issues are created or closed, indicating low levels of support. Do not expect new development.</v>
+        <v>There is some, but still little, new development in this project. People still fork it. Few issues are created or closed, indicating low levels of support or that the product is of so high quality that no new issues need to be created. Do not expect new development.</v>
       </c>
       <c r="Q47">
         <f t="shared" si="1"/>
@@ -6290,13 +6002,13 @@
         <v>5</v>
       </c>
       <c r="G49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M49" s="19" t="str">
         <f t="shared" si="0"/>
@@ -6344,13 +6056,13 @@
         <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M50" s="19" t="str">
         <f t="shared" si="0"/>
@@ -6398,13 +6110,13 @@
         <v>7</v>
       </c>
       <c r="G51" t="s">
+        <v>119</v>
+      </c>
+      <c r="H51" t="s">
         <v>120</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>121</v>
-      </c>
-      <c r="I51" t="s">
-        <v>122</v>
       </c>
       <c r="M51" s="19" t="str">
         <f t="shared" si="0"/>
@@ -6497,17 +6209,17 @@
         <v>5</v>
       </c>
       <c r="G53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H53" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="I53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M53" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>There is little new development in this project. Few new issues are created, but many old are closed. Do not expect new development. The project is in a stable maintenance phase.</v>
+        <v>There is little new development in this project. Few new issues are created, but many old are closed. Do not expect new development but you may get support for your issues. The project is in a stable maintenance phase.</v>
       </c>
       <c r="Q53">
         <f t="shared" si="1"/>
@@ -6551,17 +6263,17 @@
         <v>6</v>
       </c>
       <c r="G54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H54" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="I54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M54" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>There is little new development in this project. Few new issues are created, but many old are closed. Do not expect new development. The project is in a stable maintenance phase.</v>
+        <v>There is little new development in this project. Few new issues are created, but many old are closed. Do not expect new development but you may get support for your issues. The project is in a stable maintenance phase.</v>
       </c>
       <c r="Q54">
         <f t="shared" si="1"/>
@@ -6604,21 +6316,24 @@
       <c r="E55" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="F55" t="s">
+        <v>182</v>
+      </c>
       <c r="G55" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="H55" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="I55" t="s">
-        <v>122</v>
-      </c>
-      <c r="L55" t="s">
-        <v>32</v>
+        <v>121</v>
+      </c>
+      <c r="L55">
+        <v>0.5</v>
       </c>
       <c r="M55" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>There is little new development in this project, but people still fork it. Few new issues are created, but many old are closed. Do not expect new development. The project is in a stable maintenance phase, and is still popular.</v>
+        <v>There is some, but still little, new development in this project. People still fork it. Few new issues are created, but many old are closed. Do not expect new development but you may get support for your issues. The project is in a stable maintenance phase, and is still popular.</v>
       </c>
       <c r="Q55">
         <f t="shared" si="1"/>
@@ -6752,13 +6467,13 @@
         <v>5</v>
       </c>
       <c r="G58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H58" t="s">
+        <v>128</v>
+      </c>
+      <c r="I58" t="s">
         <v>129</v>
-      </c>
-      <c r="I58" t="s">
-        <v>130</v>
       </c>
       <c r="M58" s="19" t="str">
         <f t="shared" si="0"/>
@@ -6806,13 +6521,13 @@
         <v>6</v>
       </c>
       <c r="G59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M59" s="19" t="str">
         <f t="shared" si="0"/>
@@ -6859,27 +6574,30 @@
       <c r="E60" t="s">
         <v>7</v>
       </c>
+      <c r="F60" t="s">
+        <v>239</v>
+      </c>
       <c r="G60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I60" t="s">
-        <v>130</v>
-      </c>
-      <c r="J60" t="s">
-        <v>32</v>
-      </c>
-      <c r="K60" t="s">
-        <v>32</v>
-      </c>
-      <c r="L60" t="s">
-        <v>32</v>
+        <v>185</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>0.5</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
       </c>
       <c r="M60" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>There is little new development in this project, but people still fork it. Some new issues are created but few are closed. Do not expect new development.</v>
+        <v>There is little new development in this project, but people still fork it. Some new issues are created but few are closed. Do not expect new development, but the project is still popular.</v>
       </c>
       <c r="Q60">
         <f t="shared" si="1"/>
@@ -6968,13 +6686,13 @@
         <v>5</v>
       </c>
       <c r="G62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H62" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M62" s="19" t="str">
         <f t="shared" si="0"/>
@@ -7022,13 +6740,13 @@
         <v>6</v>
       </c>
       <c r="G63" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I63" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M63" s="19" t="str">
         <f t="shared" si="0"/>
@@ -7076,13 +6794,13 @@
         <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M64" s="19" t="str">
         <f t="shared" si="0"/>
@@ -7175,13 +6893,13 @@
         <v>5</v>
       </c>
       <c r="G66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M66" s="19" t="str">
         <f t="shared" si="0"/>
@@ -7229,13 +6947,13 @@
         <v>6</v>
       </c>
       <c r="G67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I67" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M67" s="19" t="str">
         <f t="shared" ref="M67:M100" si="7">CONCATENATE(G67," ",H67," ",I67)</f>
@@ -7283,13 +7001,13 @@
         <v>7</v>
       </c>
       <c r="G68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M68" s="19" t="str">
         <f t="shared" si="7"/>
@@ -7336,8 +7054,8 @@
       <c r="E69" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L69" t="s">
-        <v>32</v>
+      <c r="L69">
+        <v>1</v>
       </c>
       <c r="M69" s="19" t="str">
         <f t="shared" si="7"/>
@@ -7430,13 +7148,13 @@
         <v>5</v>
       </c>
       <c r="G71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I71" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M71" s="19" t="str">
         <f t="shared" si="7"/>
@@ -7483,23 +7201,26 @@
       <c r="E72" t="s">
         <v>6</v>
       </c>
+      <c r="F72" t="s">
+        <v>186</v>
+      </c>
       <c r="G72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I72" t="s">
-        <v>128</v>
-      </c>
-      <c r="J72" t="s">
-        <v>32</v>
-      </c>
-      <c r="K72" t="s">
-        <v>32</v>
-      </c>
-      <c r="L72" t="s">
-        <v>32</v>
+        <v>127</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
       </c>
       <c r="M72" s="19" t="str">
         <f t="shared" si="7"/>
@@ -7547,13 +7268,13 @@
         <v>7</v>
       </c>
       <c r="G73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H73" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M73" s="19" t="str">
         <f t="shared" si="7"/>
@@ -7646,13 +7367,13 @@
         <v>5</v>
       </c>
       <c r="G75" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H75" t="s">
+        <v>133</v>
+      </c>
+      <c r="I75" t="s">
         <v>134</v>
-      </c>
-      <c r="I75" t="s">
-        <v>135</v>
       </c>
       <c r="M75" s="19" t="str">
         <f t="shared" si="7"/>
@@ -7700,13 +7421,13 @@
         <v>6</v>
       </c>
       <c r="G76" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H76" t="s">
+        <v>133</v>
+      </c>
+      <c r="I76" t="s">
         <v>134</v>
-      </c>
-      <c r="I76" t="s">
-        <v>135</v>
       </c>
       <c r="M76" s="19" t="str">
         <f t="shared" si="7"/>
@@ -7754,13 +7475,13 @@
         <v>7</v>
       </c>
       <c r="G77" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H77" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M77" s="19" t="str">
         <f t="shared" si="7"/>
@@ -7791,7 +7512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:22" ht="30">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -7807,12 +7528,22 @@
       <c r="E78" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F78" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="I78" s="22" t="s">
+        <v>188</v>
+      </c>
       <c r="L78" t="s">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="M78" s="19" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve"> Issues are being closed at (roughly) the same rate as they are being created. The project is in a stable maintenance phase, but it's popularity is unknown.</v>
       </c>
       <c r="Q78">
         <f t="shared" si="8"/>
@@ -7856,14 +7587,17 @@
         <v>5</v>
       </c>
       <c r="G79" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H79" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="I79" t="s">
+        <v>188</v>
       </c>
       <c r="M79" s="19" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">There is little new development in this project. Issues are being closed at (roughly) the same rate as they are being created. </v>
+        <v>There is little new development in this project. Issues are being closed at (roughly) the same rate as they are being created. The project is in a stable maintenance phase, but it's popularity is unknown.</v>
       </c>
       <c r="Q79">
         <f t="shared" si="8"/>
@@ -7907,14 +7641,17 @@
         <v>6</v>
       </c>
       <c r="G80" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H80" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="I80" t="s">
+        <v>188</v>
       </c>
       <c r="M80" s="19" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">There is little new development in this project. Issues are being closed at (roughly) the same rate as they are being created. </v>
+        <v>There is little new development in this project. Issues are being closed at (roughly) the same rate as they are being created. The project is in a stable maintenance phase, but it's popularity is unknown.</v>
       </c>
       <c r="Q80">
         <f t="shared" si="8"/>
@@ -7958,17 +7695,20 @@
         <v>7</v>
       </c>
       <c r="G81" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H81" t="s">
-        <v>131</v>
-      </c>
-      <c r="J81" t="s">
-        <v>32</v>
+        <v>130</v>
+      </c>
+      <c r="I81" t="s">
+        <v>189</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
       </c>
       <c r="M81" s="19" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">There is little new development in this project, but people still fork it. Issues are being closed at (roughly) the same rate as they are being created. </v>
+        <v>There is little new development in this project, but people still fork it. Issues are being closed at (roughly) the same rate as they are being created. The project is in a stable maintenance phase, and the number of forks indicate that the project is still popular.</v>
       </c>
       <c r="Q81">
         <f t="shared" si="8"/>
@@ -8012,10 +7752,10 @@
         <v>8</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
-      </c>
-      <c r="K82" t="s">
-        <v>32</v>
+        <v>240</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
       </c>
       <c r="M82" s="19" t="str">
         <f t="shared" si="7"/>
@@ -8153,17 +7893,17 @@
         <v>5</v>
       </c>
       <c r="G85" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H85" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="I85" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M85" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>There is little new development in this project. Few issues are created or closed, indicating low levels of support. Do not expect new development.</v>
+        <v>There is little new development in this project. Few issues are created or closed, indicating low levels of support or that the product is of so high quality that no new issues need to be created. Do not expect new development.</v>
       </c>
       <c r="Q85">
         <f t="shared" si="8"/>
@@ -8206,21 +7946,24 @@
       <c r="E86" t="s">
         <v>6</v>
       </c>
+      <c r="F86" t="s">
+        <v>190</v>
+      </c>
       <c r="G86" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H86" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="I86" t="s">
-        <v>128</v>
-      </c>
-      <c r="L86" t="s">
-        <v>32</v>
+        <v>127</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
       </c>
       <c r="M86" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>There is little new development in this project. Few issues are created or closed, indicating low levels of support. One of the recent forks may have taken over.</v>
+        <v>There is little new development in this project. Few issues are created or closed, indicating low levels of support or that the product is of so high quality that no new issues need to be created. One of the recent forks may have taken over.</v>
       </c>
       <c r="Q86">
         <f t="shared" si="8"/>
@@ -8264,17 +8007,17 @@
         <v>7</v>
       </c>
       <c r="G87" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H87" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="I87" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M87" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>There is little new development in this project, but people still fork it. Few issues are created or closed, indicating low levels of support. Do not expect new development.</v>
+        <v>There is little new development in this project, but people still fork it. Few issues are created or closed, indicating low levels of support or that the product is of so high quality that no new issues need to be created. Do not expect new development.</v>
       </c>
       <c r="Q87">
         <f t="shared" si="8"/>
@@ -8363,13 +8106,13 @@
         <v>5</v>
       </c>
       <c r="G89" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I89" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M89" s="19" t="str">
         <f t="shared" si="7"/>
@@ -8417,16 +8160,16 @@
         <v>6</v>
       </c>
       <c r="G90" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H90" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I90" t="s">
-        <v>118</v>
-      </c>
-      <c r="J90" t="s">
-        <v>32</v>
+        <v>117</v>
+      </c>
+      <c r="J90">
+        <v>0.5</v>
       </c>
       <c r="M90" s="19" t="str">
         <f t="shared" si="7"/>
@@ -8474,13 +8217,13 @@
         <v>7</v>
       </c>
       <c r="G91" t="s">
+        <v>119</v>
+      </c>
+      <c r="H91" t="s">
         <v>120</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>121</v>
-      </c>
-      <c r="I91" t="s">
-        <v>122</v>
       </c>
       <c r="M91" s="19" t="str">
         <f t="shared" si="7"/>
@@ -8573,13 +8316,13 @@
         <v>5</v>
       </c>
       <c r="G93" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I93" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M93" s="19" t="str">
         <f t="shared" si="7"/>
@@ -8627,13 +8370,13 @@
         <v>6</v>
       </c>
       <c r="G94" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H94" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M94" s="19" t="str">
         <f t="shared" si="7"/>
@@ -8681,13 +8424,13 @@
         <v>7</v>
       </c>
       <c r="G95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H95" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I95" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M95" s="19" t="str">
         <f t="shared" si="7"/>
@@ -8734,8 +8477,11 @@
       <c r="E96" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K96" t="s">
-        <v>32</v>
+      <c r="F96" t="s">
+        <v>241</v>
+      </c>
+      <c r="K96">
+        <v>-1</v>
       </c>
       <c r="M96" s="19" t="str">
         <f t="shared" si="7"/>
@@ -8828,13 +8574,13 @@
         <v>5</v>
       </c>
       <c r="G98" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H98" t="s">
+        <v>128</v>
+      </c>
+      <c r="I98" t="s">
         <v>129</v>
-      </c>
-      <c r="I98" t="s">
-        <v>130</v>
       </c>
       <c r="M98" s="19" t="str">
         <f t="shared" si="7"/>
@@ -8882,13 +8628,13 @@
         <v>6</v>
       </c>
       <c r="G99" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H99" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I99" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M99" s="19" t="str">
         <f t="shared" si="7"/>
@@ -8936,13 +8682,13 @@
         <v>7</v>
       </c>
       <c r="G100" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H100" t="s">
+        <v>128</v>
+      </c>
+      <c r="I100" t="s">
         <v>129</v>
-      </c>
-      <c r="I100" t="s">
-        <v>130</v>
       </c>
       <c r="M100" s="19" t="str">
         <f t="shared" si="7"/>
@@ -9035,13 +8781,13 @@
         <v>5</v>
       </c>
       <c r="G102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H102" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I102" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M102" s="19" t="str">
         <f t="shared" ref="M102:M165" si="14">CONCATENATE(G102," ",H102," ",I102)</f>
@@ -9089,13 +8835,13 @@
         <v>6</v>
       </c>
       <c r="G103" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H103" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I103" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M103" s="19" t="str">
         <f t="shared" si="14"/>
@@ -9143,13 +8889,13 @@
         <v>7</v>
       </c>
       <c r="G104" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H104" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I104" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M104" s="19" t="str">
         <f t="shared" si="14"/>
@@ -9241,17 +8987,20 @@
       <c r="E106" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F106" t="s">
+        <v>242</v>
+      </c>
       <c r="G106" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H106" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I106" t="s">
-        <v>118</v>
-      </c>
-      <c r="K106" t="s">
-        <v>32</v>
+        <v>117</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
       </c>
       <c r="M106" s="19" t="str">
         <f t="shared" si="14"/>
@@ -9299,13 +9048,13 @@
         <v>6</v>
       </c>
       <c r="G107" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H107" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I107" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M107" s="19" t="str">
         <f t="shared" si="14"/>
@@ -9353,13 +9102,13 @@
         <v>7</v>
       </c>
       <c r="G108" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H108" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I108" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M108" s="19" t="str">
         <f t="shared" si="14"/>
@@ -9390,7 +9139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:22">
+    <row r="109" spans="1:22" ht="30">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -9406,8 +9155,11 @@
       <c r="E109" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L109" t="s">
-        <v>32</v>
+      <c r="F109" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
       </c>
       <c r="M109" s="19" t="str">
         <f t="shared" si="14"/>
@@ -9454,8 +9206,11 @@
       <c r="E110" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J110" t="s">
-        <v>32</v>
+      <c r="F110" t="s">
+        <v>215</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
       </c>
       <c r="M110" s="19" t="str">
         <f t="shared" si="14"/>
@@ -9503,17 +9258,17 @@
         <v>5</v>
       </c>
       <c r="G111" t="s">
-        <v>119</v>
+        <v>216</v>
       </c>
       <c r="H111" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I111" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M111" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>There is little new development in this project. Many new issues are created but few are closed. Do not expect new development.</v>
+        <v>There is little new development in this project; it may be understaffed. Many new issues are created but few are closed. Do not expect new development.</v>
       </c>
       <c r="Q111">
         <f t="shared" si="8"/>
@@ -9556,27 +9311,30 @@
       <c r="E112" t="s">
         <v>6</v>
       </c>
+      <c r="F112" t="s">
+        <v>217</v>
+      </c>
       <c r="G112" t="s">
-        <v>119</v>
+        <v>216</v>
       </c>
       <c r="H112" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I112" t="s">
-        <v>128</v>
-      </c>
-      <c r="J112" t="s">
-        <v>32</v>
-      </c>
-      <c r="K112" t="s">
-        <v>32</v>
-      </c>
-      <c r="L112" t="s">
-        <v>32</v>
+        <v>127</v>
+      </c>
+      <c r="J112">
+        <v>0.5</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
       </c>
       <c r="M112" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>There is little new development in this project. Many new issues are created but few are closed. One of the recent forks may have taken over.</v>
+        <v>There is little new development in this project; it may be understaffed. Many new issues are created but few are closed. One of the recent forks may have taken over.</v>
       </c>
       <c r="Q112">
         <f t="shared" si="8"/>
@@ -9620,13 +9378,13 @@
         <v>7</v>
       </c>
       <c r="G113" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H113" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I113" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M113" s="19" t="str">
         <f t="shared" si="14"/>
@@ -9719,13 +9477,13 @@
         <v>5</v>
       </c>
       <c r="G115" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H115" t="s">
+        <v>133</v>
+      </c>
+      <c r="I115" t="s">
         <v>134</v>
-      </c>
-      <c r="I115" t="s">
-        <v>135</v>
       </c>
       <c r="M115" s="19" t="str">
         <f t="shared" si="14"/>
@@ -9773,13 +9531,13 @@
         <v>6</v>
       </c>
       <c r="G116" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H116" t="s">
+        <v>133</v>
+      </c>
+      <c r="I116" t="s">
         <v>134</v>
-      </c>
-      <c r="I116" t="s">
-        <v>135</v>
       </c>
       <c r="M116" s="19" t="str">
         <f t="shared" si="14"/>
@@ -9827,16 +9585,16 @@
         <v>7</v>
       </c>
       <c r="G117" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H117" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I117" t="s">
-        <v>136</v>
-      </c>
-      <c r="K117" t="s">
-        <v>32</v>
+        <v>135</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
       </c>
       <c r="M117" s="19" t="str">
         <f t="shared" si="14"/>
@@ -9929,17 +9687,20 @@
         <v>5</v>
       </c>
       <c r="G119" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H119" t="s">
-        <v>131</v>
-      </c>
-      <c r="J119" t="s">
-        <v>32</v>
+        <v>130</v>
+      </c>
+      <c r="I119" t="s">
+        <v>162</v>
+      </c>
+      <c r="J119">
+        <v>-1</v>
       </c>
       <c r="M119" s="19" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">There is little new development in this project. Issues are being closed at (roughly) the same rate as they are being created. </v>
+        <v>There is little new development in this project. Issues are being closed at (roughly) the same rate as they are being created. The developers may be unwilling to invest in more resources for the component; this indicates that the component is in the latter half of its lifecycle.</v>
       </c>
       <c r="Q119">
         <f t="shared" si="8"/>
@@ -9983,14 +9744,17 @@
         <v>6</v>
       </c>
       <c r="G120" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H120" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="I120" t="s">
+        <v>162</v>
       </c>
       <c r="M120" s="19" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">There is little new development in this project. Issues are being closed at (roughly) the same rate as they are being created. </v>
+        <v>There is little new development in this project. Issues are being closed at (roughly) the same rate as they are being created. The developers may be unwilling to invest in more resources for the component; this indicates that the component is in the latter half of its lifecycle.</v>
       </c>
       <c r="Q120">
         <f t="shared" si="8"/>
@@ -10034,14 +9798,17 @@
         <v>7</v>
       </c>
       <c r="G121" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H121" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="I121" t="s">
+        <v>162</v>
       </c>
       <c r="M121" s="19" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">There is little new development in this project, but people still fork it. Issues are being closed at (roughly) the same rate as they are being created. </v>
+        <v>There is little new development in this project, but people still fork it. Issues are being closed at (roughly) the same rate as they are being created. The developers may be unwilling to invest in more resources for the component; this indicates that the component is in the latter half of its lifecycle.</v>
       </c>
       <c r="Q121">
         <f t="shared" si="8"/>
@@ -10085,7 +9852,7 @@
         <v>8</v>
       </c>
       <c r="F122" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M122" s="19" t="str">
         <f t="shared" si="14"/>
@@ -10133,7 +9900,7 @@
         <v>8</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M123" s="19" t="str">
         <f t="shared" si="14"/>
@@ -10226,13 +9993,13 @@
         <v>5</v>
       </c>
       <c r="G125" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H125" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I125" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M125" s="19" t="str">
         <f t="shared" si="14"/>
@@ -10280,13 +10047,13 @@
         <v>6</v>
       </c>
       <c r="G126" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H126" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I126" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M126" s="19" t="str">
         <f t="shared" si="14"/>
@@ -10334,13 +10101,13 @@
         <v>7</v>
       </c>
       <c r="G127" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H127" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I127" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M127" s="19" t="str">
         <f t="shared" si="14"/>
@@ -10388,13 +10155,13 @@
         <v>8</v>
       </c>
       <c r="F128" t="s">
-        <v>151</v>
-      </c>
-      <c r="J128" t="s">
-        <v>32</v>
-      </c>
-      <c r="K128" t="s">
-        <v>32</v>
+        <v>243</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
       </c>
       <c r="M128" s="19" t="str">
         <f t="shared" si="14"/>
@@ -10442,13 +10209,13 @@
         <v>5</v>
       </c>
       <c r="G129" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H129" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I129" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M129" s="19" t="str">
         <f t="shared" si="14"/>
@@ -10495,17 +10262,20 @@
       <c r="E130" t="s">
         <v>6</v>
       </c>
+      <c r="F130" t="s">
+        <v>192</v>
+      </c>
       <c r="G130" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H130" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I130" t="s">
-        <v>158</v>
-      </c>
-      <c r="L130" t="s">
-        <v>32</v>
+        <v>155</v>
+      </c>
+      <c r="L130">
+        <v>-1</v>
       </c>
       <c r="M130" s="19" t="str">
         <f t="shared" si="14"/>
@@ -10553,13 +10323,13 @@
         <v>7</v>
       </c>
       <c r="G131" t="s">
+        <v>147</v>
+      </c>
+      <c r="H131" t="s">
         <v>149</v>
       </c>
-      <c r="H131" t="s">
-        <v>152</v>
-      </c>
       <c r="I131" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M131" s="19" t="str">
         <f t="shared" si="14"/>
@@ -10607,7 +10377,7 @@
         <v>8</v>
       </c>
       <c r="F132" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M132" s="19" t="str">
         <f t="shared" si="14"/>
@@ -10655,13 +10425,13 @@
         <v>5</v>
       </c>
       <c r="G133" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H133" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I133" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M133" s="19" t="str">
         <f t="shared" si="14"/>
@@ -10709,13 +10479,13 @@
         <v>6</v>
       </c>
       <c r="G134" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H134" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I134" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M134" s="19" t="str">
         <f t="shared" si="14"/>
@@ -10763,13 +10533,13 @@
         <v>7</v>
       </c>
       <c r="G135" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H135" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I135" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M135" s="19" t="str">
         <f t="shared" si="14"/>
@@ -10817,7 +10587,7 @@
         <v>8</v>
       </c>
       <c r="F136" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M136" s="19" t="str">
         <f t="shared" si="14"/>
@@ -10865,7 +10635,7 @@
         <v>8</v>
       </c>
       <c r="F137" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M137" s="19" t="str">
         <f t="shared" si="14"/>
@@ -10913,13 +10683,13 @@
         <v>5</v>
       </c>
       <c r="G138" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H138" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I138" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M138" s="19" t="str">
         <f t="shared" si="14"/>
@@ -10967,13 +10737,13 @@
         <v>6</v>
       </c>
       <c r="G139" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H139" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I139" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M139" s="19" t="str">
         <f t="shared" si="14"/>
@@ -11021,20 +10791,20 @@
         <v>7</v>
       </c>
       <c r="G140" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H140" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I140" t="s">
-        <v>159</v>
-      </c>
-      <c r="J140" t="s">
-        <v>32</v>
+        <v>218</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
       </c>
       <c r="M140" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>There is ongoing development by a small team of developers. Many forks indicate community interest. Component usage is generating issues, but few issues are being closed. This component is at risk of becoming phased out.</v>
+        <v>There is ongoing development by a small team of developers. Many forks indicate community interest. Component usage is generating issues, but few issues are being closed. This component is at risk of becoming phased out. Some of the forks may have continued the project.</v>
       </c>
       <c r="Q140">
         <f t="shared" si="15"/>
@@ -11078,7 +10848,7 @@
         <v>8</v>
       </c>
       <c r="F141" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M141" s="19" t="str">
         <f t="shared" si="14"/>
@@ -11126,13 +10896,13 @@
         <v>5</v>
       </c>
       <c r="G142" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H142" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I142" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M142" s="19" t="str">
         <f t="shared" si="14"/>
@@ -11180,13 +10950,13 @@
         <v>6</v>
       </c>
       <c r="G143" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H143" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I143" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M143" s="19" t="str">
         <f t="shared" si="14"/>
@@ -11233,23 +11003,26 @@
       <c r="E144" t="s">
         <v>7</v>
       </c>
+      <c r="F144" t="s">
+        <v>193</v>
+      </c>
       <c r="G144" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H144" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I144" t="s">
-        <v>157</v>
-      </c>
-      <c r="J144" t="s">
-        <v>32</v>
-      </c>
-      <c r="K144" t="s">
-        <v>32</v>
-      </c>
-      <c r="L144" t="s">
-        <v>32</v>
+        <v>154</v>
+      </c>
+      <c r="J144">
+        <v>-1</v>
+      </c>
+      <c r="K144">
+        <v>-1</v>
+      </c>
+      <c r="L144">
+        <v>-1</v>
       </c>
       <c r="M144" s="19" t="str">
         <f t="shared" si="14"/>
@@ -11297,7 +11070,7 @@
         <v>8</v>
       </c>
       <c r="F145" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M145" s="19" t="str">
         <f t="shared" si="14"/>
@@ -11345,16 +11118,16 @@
         <v>5</v>
       </c>
       <c r="G146" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H146" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I146" t="s">
-        <v>157</v>
-      </c>
-      <c r="K146" t="s">
-        <v>32</v>
+        <v>154</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
       </c>
       <c r="M146" s="19" t="str">
         <f t="shared" si="14"/>
@@ -11402,13 +11175,13 @@
         <v>6</v>
       </c>
       <c r="G147" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H147" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I147" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M147" s="19" t="str">
         <f t="shared" si="14"/>
@@ -11456,13 +11229,13 @@
         <v>7</v>
       </c>
       <c r="G148" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H148" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I148" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M148" s="19" t="str">
         <f t="shared" si="14"/>
@@ -11510,7 +11283,7 @@
         <v>8</v>
       </c>
       <c r="F149" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M149" s="19" t="str">
         <f t="shared" si="14"/>
@@ -11558,7 +11331,7 @@
         <v>8</v>
       </c>
       <c r="F150" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M150" s="19" t="str">
         <f t="shared" si="14"/>
@@ -11606,20 +11379,20 @@
         <v>5</v>
       </c>
       <c r="G151" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H151" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I151" t="s">
-        <v>159</v>
-      </c>
-      <c r="J151" t="s">
-        <v>32</v>
+        <v>219</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
       </c>
       <c r="M151" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>There is ongoing development by a small team of developers. Component usage is generating many new issues, but few issues are being closed. This component is at risk of becoming phased out.</v>
+        <v>There is ongoing development by a small team of developers. Component usage is generating many new issues, but few issues are being closed. This component is understaffed and/or at risk of becoming phased out.</v>
       </c>
       <c r="Q151">
         <f t="shared" si="15"/>
@@ -11663,17 +11436,17 @@
         <v>6</v>
       </c>
       <c r="G152" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H152" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I152" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="M152" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>There is ongoing development by a small team of developers. Component usage is generating many new issues, but few issues are being closed. This component is at risk of becoming phased out.</v>
+        <v>There is ongoing development by a small team of developers. Component usage is generating many new issues, but few issues are being closed. This component is understaffed and/or at risk of becoming phased out.</v>
       </c>
       <c r="Q152">
         <f t="shared" si="15"/>
@@ -11717,17 +11490,17 @@
         <v>7</v>
       </c>
       <c r="G153" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H153" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I153" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="M153" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>There is ongoing development by a small team of developers. Many forks indicate community interest. Component usage is generating many new issues, but few issues are being closed. This component is at risk of becoming phased out.</v>
+        <v>There is ongoing development by a small team of developers. Many forks indicate community interest. Component usage is generating many new issues, but few issues are being closed. This component is understaffed and/or at risk of becoming phased out.</v>
       </c>
       <c r="Q153">
         <f t="shared" si="15"/>
@@ -11816,13 +11589,13 @@
         <v>5</v>
       </c>
       <c r="G155" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H155" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I155" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M155" s="19" t="str">
         <f t="shared" si="14"/>
@@ -11870,13 +11643,13 @@
         <v>6</v>
       </c>
       <c r="G156" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H156" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I156" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M156" s="19" t="str">
         <f t="shared" si="14"/>
@@ -11924,16 +11697,16 @@
         <v>7</v>
       </c>
       <c r="G157" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H157" t="s">
+        <v>159</v>
+      </c>
+      <c r="I157" t="s">
         <v>162</v>
       </c>
-      <c r="I157" t="s">
-        <v>165</v>
-      </c>
-      <c r="J157" t="s">
-        <v>32</v>
+      <c r="J157">
+        <v>1</v>
       </c>
       <c r="M157" s="19" t="str">
         <f t="shared" si="14"/>
@@ -11981,7 +11754,7 @@
         <v>8</v>
       </c>
       <c r="F158" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M158" s="19" t="str">
         <f t="shared" si="14"/>
@@ -12029,13 +11802,13 @@
         <v>5</v>
       </c>
       <c r="G159" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H159" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I159" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M159" s="19" t="str">
         <f t="shared" si="14"/>
@@ -12083,13 +11856,13 @@
         <v>6</v>
       </c>
       <c r="G160" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H160" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I160" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M160" s="19" t="str">
         <f t="shared" si="14"/>
@@ -12136,23 +11909,26 @@
       <c r="E161" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="F161" t="s">
+        <v>194</v>
+      </c>
       <c r="G161" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H161" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I161" t="s">
-        <v>157</v>
-      </c>
-      <c r="J161" t="s">
-        <v>32</v>
-      </c>
-      <c r="K161" t="s">
-        <v>32</v>
-      </c>
-      <c r="L161" t="s">
-        <v>32</v>
+        <v>154</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <v>-1</v>
+      </c>
+      <c r="L161">
+        <v>-1</v>
       </c>
       <c r="M161" s="19" t="str">
         <f t="shared" si="14"/>
@@ -12200,7 +11976,7 @@
         <v>8</v>
       </c>
       <c r="F162" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M162" s="19" t="str">
         <f t="shared" si="14"/>
@@ -12248,7 +12024,7 @@
         <v>8</v>
       </c>
       <c r="F163" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M163" s="19" t="str">
         <f t="shared" si="14"/>
@@ -12341,13 +12117,13 @@
         <v>5</v>
       </c>
       <c r="G165" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H165" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I165" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M165" s="19" t="str">
         <f t="shared" si="14"/>
@@ -12395,13 +12171,13 @@
         <v>6</v>
       </c>
       <c r="G166" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H166" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I166" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M166" s="19" t="str">
         <f t="shared" ref="M166:M199" si="21">CONCATENATE(G166," ",H166," ",I166)</f>
@@ -12449,13 +12225,13 @@
         <v>7</v>
       </c>
       <c r="G167" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H167" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I167" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M167" s="19" t="str">
         <f t="shared" si="21"/>
@@ -12502,12 +12278,24 @@
       <c r="E168" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J168" t="s">
-        <v>32</v>
+      <c r="F168" t="s">
+        <v>220</v>
+      </c>
+      <c r="G168" t="s">
+        <v>221</v>
+      </c>
+      <c r="H168" t="s">
+        <v>222</v>
+      </c>
+      <c r="I168" t="s">
+        <v>223</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
       </c>
       <c r="M168" s="19" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">  </v>
+        <v>There is some new development in this project, however the number of forks is unknown. Eagerness to close off more issues than the issues created (at a higher rate). The project is probably moving to maintenance phase.</v>
       </c>
       <c r="Q168">
         <f t="shared" si="15"/>
@@ -12550,20 +12338,23 @@
       <c r="E169" t="s">
         <v>5</v>
       </c>
+      <c r="F169" t="s">
+        <v>195</v>
+      </c>
       <c r="G169" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H169" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I169" t="s">
-        <v>171</v>
-      </c>
-      <c r="K169" t="s">
-        <v>32</v>
-      </c>
-      <c r="L169" t="s">
-        <v>32</v>
+        <v>168</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>0.5</v>
       </c>
       <c r="M169" s="19" t="str">
         <f t="shared" si="21"/>
@@ -12611,13 +12402,13 @@
         <v>6</v>
       </c>
       <c r="G170" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H170" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I170" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M170" s="19" t="str">
         <f t="shared" si="21"/>
@@ -12665,13 +12456,13 @@
         <v>7</v>
       </c>
       <c r="G171" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H171" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I171" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M171" s="19" t="str">
         <f t="shared" si="21"/>
@@ -12764,13 +12555,13 @@
         <v>5</v>
       </c>
       <c r="G173" t="s">
+        <v>166</v>
+      </c>
+      <c r="H173" t="s">
         <v>169</v>
       </c>
-      <c r="H173" t="s">
-        <v>172</v>
-      </c>
       <c r="I173" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M173" s="19" t="str">
         <f t="shared" si="21"/>
@@ -12818,13 +12609,13 @@
         <v>6</v>
       </c>
       <c r="G174" t="s">
+        <v>166</v>
+      </c>
+      <c r="H174" t="s">
         <v>169</v>
       </c>
-      <c r="H174" t="s">
-        <v>172</v>
-      </c>
       <c r="I174" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M174" s="19" t="str">
         <f t="shared" si="21"/>
@@ -12872,13 +12663,13 @@
         <v>7</v>
       </c>
       <c r="G175" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H175" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I175" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M175" s="19" t="str">
         <f t="shared" si="21"/>
@@ -12926,7 +12717,7 @@
         <v>8</v>
       </c>
       <c r="F176" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M176" s="19" t="str">
         <f t="shared" si="21"/>
@@ -12974,7 +12765,7 @@
         <v>8</v>
       </c>
       <c r="F177" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M177" s="19" t="str">
         <f t="shared" si="21"/>
@@ -13022,17 +12813,17 @@
         <v>5</v>
       </c>
       <c r="G178" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H178" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I178" t="s">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="M178" s="19" t="str">
         <f t="shared" si="21"/>
-        <v>There is ongoing development by a small team of developers. This component may recently have had a release. Component usage is generating issues, but few issues are being closed. Development is likely to continue.</v>
+        <v>There is ongoing development by a small team of developers. This component may recently have had a release. Component usage is generating issues, but few issues are being closed. Development is likely to continue, but you should also check recent forks.</v>
       </c>
       <c r="Q178">
         <f t="shared" si="15"/>
@@ -13075,21 +12866,24 @@
       <c r="E179" t="s">
         <v>6</v>
       </c>
+      <c r="F179" t="s">
+        <v>196</v>
+      </c>
       <c r="G179" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H179" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I179" t="s">
-        <v>124</v>
-      </c>
-      <c r="L179" t="s">
-        <v>32</v>
+        <v>197</v>
+      </c>
+      <c r="L179">
+        <v>-0.5</v>
       </c>
       <c r="M179" s="19" t="str">
         <f t="shared" si="21"/>
-        <v>There is ongoing development by a small team of developers. This component may recently have had a release. Component usage is generating issues, but few issues are being closed. Development is likely to continue.</v>
+        <v>There is ongoing development by a small team of developers. This component may recently have had a release. Component usage is generating issues, but few issues are being closed. Development is likely to continue, but you should also check recent forks.</v>
       </c>
       <c r="Q179">
         <f t="shared" si="15"/>
@@ -13133,17 +12927,17 @@
         <v>7</v>
       </c>
       <c r="G180" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H180" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I180" t="s">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="M180" s="19" t="str">
         <f t="shared" si="21"/>
-        <v>There is ongoing development by a small team of developers. This component may recently have had a release. Component usage is generating issues, but few issues are being closed. Development is likely to continue.</v>
+        <v>There is ongoing development by a small team of developers. This component may recently have had a release. Component usage is generating issues, but few issues are being closed. Development is likely to continue, but you should also check recent forks.</v>
       </c>
       <c r="Q180">
         <f t="shared" si="15"/>
@@ -13187,7 +12981,7 @@
         <v>8</v>
       </c>
       <c r="F181" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M181" s="19" t="str">
         <f t="shared" si="21"/>
@@ -13235,13 +13029,13 @@
         <v>5</v>
       </c>
       <c r="G182" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H182" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I182" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M182" s="19" t="str">
         <f t="shared" si="21"/>
@@ -13289,13 +13083,13 @@
         <v>6</v>
       </c>
       <c r="G183" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H183" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I183" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M183" s="19" t="str">
         <f t="shared" si="21"/>
@@ -13343,13 +13137,13 @@
         <v>7</v>
       </c>
       <c r="G184" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H184" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I184" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M184" s="19" t="str">
         <f t="shared" si="21"/>
@@ -13442,16 +13236,16 @@
         <v>5</v>
       </c>
       <c r="G186" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H186" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I186" t="s">
-        <v>157</v>
-      </c>
-      <c r="J186" t="s">
-        <v>32</v>
+        <v>154</v>
+      </c>
+      <c r="J186">
+        <v>-1</v>
       </c>
       <c r="M186" s="19" t="str">
         <f t="shared" si="21"/>
@@ -13499,13 +13293,13 @@
         <v>6</v>
       </c>
       <c r="G187" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H187" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I187" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M187" s="19" t="str">
         <f t="shared" si="21"/>
@@ -13553,13 +13347,13 @@
         <v>7</v>
       </c>
       <c r="G188" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H188" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I188" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M188" s="19" t="str">
         <f t="shared" si="21"/>
@@ -13606,8 +13400,11 @@
       <c r="E189" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K189" t="s">
-        <v>32</v>
+      <c r="F189" t="s">
+        <v>244</v>
+      </c>
+      <c r="K189">
+        <v>-1</v>
       </c>
       <c r="M189" s="19" t="str">
         <f t="shared" si="21"/>
@@ -13700,13 +13497,13 @@
         <v>5</v>
       </c>
       <c r="G191" t="s">
+        <v>167</v>
+      </c>
+      <c r="H191" t="s">
+        <v>158</v>
+      </c>
+      <c r="I191" t="s">
         <v>170</v>
-      </c>
-      <c r="H191" t="s">
-        <v>161</v>
-      </c>
-      <c r="I191" t="s">
-        <v>173</v>
       </c>
       <c r="M191" s="19" t="str">
         <f t="shared" si="21"/>
@@ -13754,13 +13551,13 @@
         <v>6</v>
       </c>
       <c r="G192" t="s">
+        <v>167</v>
+      </c>
+      <c r="H192" t="s">
+        <v>158</v>
+      </c>
+      <c r="I192" t="s">
         <v>170</v>
-      </c>
-      <c r="H192" t="s">
-        <v>161</v>
-      </c>
-      <c r="I192" t="s">
-        <v>173</v>
       </c>
       <c r="M192" s="19" t="str">
         <f t="shared" si="21"/>
@@ -13807,17 +13604,20 @@
       <c r="E193" t="s">
         <v>7</v>
       </c>
+      <c r="F193" t="s">
+        <v>224</v>
+      </c>
       <c r="G193" t="s">
+        <v>167</v>
+      </c>
+      <c r="H193" t="s">
+        <v>158</v>
+      </c>
+      <c r="I193" t="s">
         <v>170</v>
       </c>
-      <c r="H193" t="s">
-        <v>161</v>
-      </c>
-      <c r="I193" t="s">
-        <v>173</v>
-      </c>
-      <c r="J193" t="s">
-        <v>32</v>
+      <c r="J193">
+        <v>-1</v>
       </c>
       <c r="M193" s="19" t="str">
         <f t="shared" si="21"/>
@@ -13910,13 +13710,13 @@
         <v>5</v>
       </c>
       <c r="G195" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H195" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I195" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M195" s="19" t="str">
         <f t="shared" si="21"/>
@@ -13964,13 +13764,13 @@
         <v>6</v>
       </c>
       <c r="G196" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H196" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I196" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M196" s="19" t="str">
         <f t="shared" si="21"/>
@@ -14017,17 +13817,20 @@
       <c r="E197" t="s">
         <v>7</v>
       </c>
+      <c r="F197" t="s">
+        <v>198</v>
+      </c>
       <c r="G197" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H197" t="s">
+        <v>159</v>
+      </c>
+      <c r="I197" t="s">
         <v>162</v>
       </c>
-      <c r="I197" t="s">
-        <v>165</v>
-      </c>
-      <c r="L197" t="s">
-        <v>32</v>
+      <c r="L197">
+        <v>1</v>
       </c>
       <c r="M197" s="19" t="str">
         <f t="shared" si="21"/>
@@ -14120,13 +13923,13 @@
         <v>5</v>
       </c>
       <c r="G199" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H199" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I199" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M199" s="19" t="str">
         <f t="shared" si="21"/>
@@ -14174,13 +13977,13 @@
         <v>6</v>
       </c>
       <c r="G200" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H200" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I200" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M200" s="19" t="str">
         <f>CONCATENATE(G200," ",H200," ",I200)</f>
@@ -14228,13 +14031,13 @@
         <v>7</v>
       </c>
       <c r="G201" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H201" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I201" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M201" s="19" t="str">
         <f t="shared" ref="M201:M264" si="28">CONCATENATE(G201," ",H201," ",I201)</f>
@@ -14282,7 +14085,7 @@
         <v>8</v>
       </c>
       <c r="F202" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M202" s="19" t="str">
         <f t="shared" si="28"/>
@@ -14330,7 +14133,7 @@
         <v>8</v>
       </c>
       <c r="F203" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M203" s="19" t="str">
         <f t="shared" si="28"/>
@@ -14377,14 +14180,17 @@
       <c r="E204" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J204" t="s">
-        <v>32</v>
-      </c>
-      <c r="K204" t="s">
-        <v>32</v>
-      </c>
-      <c r="L204" t="s">
-        <v>32</v>
+      <c r="F204" t="s">
+        <v>245</v>
+      </c>
+      <c r="J204">
+        <v>1</v>
+      </c>
+      <c r="K204">
+        <v>1</v>
+      </c>
+      <c r="L204">
+        <v>0</v>
       </c>
       <c r="M204" s="19" t="str">
         <f t="shared" si="28"/>
@@ -14432,13 +14238,13 @@
         <v>5</v>
       </c>
       <c r="G205" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H205" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I205" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M205" s="19" t="str">
         <f t="shared" si="28"/>
@@ -14486,16 +14292,16 @@
         <v>6</v>
       </c>
       <c r="G206" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H206" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I206" t="s">
-        <v>167</v>
-      </c>
-      <c r="J206" t="s">
-        <v>32</v>
+        <v>164</v>
+      </c>
+      <c r="J206">
+        <v>1</v>
       </c>
       <c r="M206" s="19" t="str">
         <f t="shared" si="28"/>
@@ -14543,13 +14349,13 @@
         <v>7</v>
       </c>
       <c r="G207" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H207" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I207" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M207" s="19" t="str">
         <f t="shared" si="28"/>
@@ -14642,13 +14448,13 @@
         <v>5</v>
       </c>
       <c r="G209" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H209" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I209" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M209" s="19" t="str">
         <f t="shared" si="28"/>
@@ -14696,13 +14502,13 @@
         <v>6</v>
       </c>
       <c r="G210" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H210" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I210" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M210" s="19" t="str">
         <f t="shared" si="28"/>
@@ -14750,13 +14556,13 @@
         <v>7</v>
       </c>
       <c r="G211" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H211" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I211" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M211" s="19" t="str">
         <f t="shared" si="28"/>
@@ -14849,13 +14655,13 @@
         <v>5</v>
       </c>
       <c r="G213" t="s">
+        <v>166</v>
+      </c>
+      <c r="H213" t="s">
         <v>169</v>
       </c>
-      <c r="H213" t="s">
-        <v>172</v>
-      </c>
       <c r="I213" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M213" s="19" t="str">
         <f t="shared" si="28"/>
@@ -14903,13 +14709,13 @@
         <v>6</v>
       </c>
       <c r="G214" t="s">
+        <v>166</v>
+      </c>
+      <c r="H214" t="s">
         <v>169</v>
       </c>
-      <c r="H214" t="s">
-        <v>172</v>
-      </c>
       <c r="I214" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M214" s="19" t="str">
         <f t="shared" si="28"/>
@@ -14957,13 +14763,13 @@
         <v>7</v>
       </c>
       <c r="G215" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H215" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I215" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M215" s="19" t="str">
         <f t="shared" si="28"/>
@@ -15010,8 +14816,8 @@
       <c r="E216" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L216" t="s">
-        <v>32</v>
+      <c r="L216">
+        <v>0</v>
       </c>
       <c r="M216" s="19" t="str">
         <f t="shared" si="28"/>
@@ -15059,10 +14865,10 @@
         <v>8</v>
       </c>
       <c r="F217" t="s">
-        <v>138</v>
-      </c>
-      <c r="J217" t="s">
-        <v>32</v>
+        <v>225</v>
+      </c>
+      <c r="J217">
+        <v>-1</v>
       </c>
       <c r="M217" s="19" t="str">
         <f t="shared" si="28"/>
@@ -15110,13 +14916,13 @@
         <v>5</v>
       </c>
       <c r="G218" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H218" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I218" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M218" s="19" t="str">
         <f t="shared" si="28"/>
@@ -15164,13 +14970,13 @@
         <v>6</v>
       </c>
       <c r="G219" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H219" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I219" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M219" s="19" t="str">
         <f t="shared" si="28"/>
@@ -15218,13 +15024,13 @@
         <v>7</v>
       </c>
       <c r="G220" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H220" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I220" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M220" s="19" t="str">
         <f t="shared" si="28"/>
@@ -15317,13 +15123,13 @@
         <v>5</v>
       </c>
       <c r="G222" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H222" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I222" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M222" s="19" t="str">
         <f t="shared" si="28"/>
@@ -15370,23 +15176,26 @@
       <c r="E223" t="s">
         <v>6</v>
       </c>
+      <c r="F223" t="s">
+        <v>226</v>
+      </c>
       <c r="G223" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H223" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I223" t="s">
-        <v>157</v>
-      </c>
-      <c r="J223" t="s">
-        <v>32</v>
-      </c>
-      <c r="K223" t="s">
-        <v>32</v>
-      </c>
-      <c r="L223" t="s">
-        <v>32</v>
+        <v>154</v>
+      </c>
+      <c r="J223">
+        <v>1</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>-1</v>
       </c>
       <c r="M223" s="19" t="str">
         <f t="shared" si="28"/>
@@ -15434,13 +15243,13 @@
         <v>7</v>
       </c>
       <c r="G224" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H224" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I224" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M224" s="19" t="str">
         <f t="shared" si="28"/>
@@ -15533,13 +15342,13 @@
         <v>5</v>
       </c>
       <c r="G226" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H226" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I226" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M226" s="19" t="str">
         <f t="shared" si="28"/>
@@ -15587,13 +15396,13 @@
         <v>6</v>
       </c>
       <c r="G227" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H227" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I227" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M227" s="19" t="str">
         <f t="shared" si="28"/>
@@ -15641,19 +15450,19 @@
         <v>7</v>
       </c>
       <c r="G228" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H228" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I228" t="s">
-        <v>157</v>
-      </c>
-      <c r="J228" t="s">
-        <v>32</v>
-      </c>
-      <c r="K228" t="s">
-        <v>32</v>
+        <v>154</v>
+      </c>
+      <c r="J228">
+        <v>0.5</v>
+      </c>
+      <c r="K228">
+        <v>-1</v>
       </c>
       <c r="M228" s="19" t="str">
         <f t="shared" si="28"/>
@@ -15700,8 +15509,8 @@
       <c r="E229" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L229" t="s">
-        <v>32</v>
+      <c r="L229">
+        <v>0</v>
       </c>
       <c r="M229" s="19" t="str">
         <f t="shared" si="28"/>
@@ -15794,13 +15603,13 @@
         <v>5</v>
       </c>
       <c r="G231" t="s">
+        <v>167</v>
+      </c>
+      <c r="H231" t="s">
+        <v>158</v>
+      </c>
+      <c r="I231" t="s">
         <v>170</v>
-      </c>
-      <c r="H231" t="s">
-        <v>161</v>
-      </c>
-      <c r="I231" t="s">
-        <v>173</v>
       </c>
       <c r="M231" s="19" t="str">
         <f t="shared" si="28"/>
@@ -15848,13 +15657,13 @@
         <v>6</v>
       </c>
       <c r="G232" t="s">
+        <v>167</v>
+      </c>
+      <c r="H232" t="s">
+        <v>158</v>
+      </c>
+      <c r="I232" t="s">
         <v>170</v>
-      </c>
-      <c r="H232" t="s">
-        <v>161</v>
-      </c>
-      <c r="I232" t="s">
-        <v>173</v>
       </c>
       <c r="M232" s="19" t="str">
         <f t="shared" si="28"/>
@@ -15902,13 +15711,13 @@
         <v>7</v>
       </c>
       <c r="G233" t="s">
+        <v>167</v>
+      </c>
+      <c r="H233" t="s">
+        <v>158</v>
+      </c>
+      <c r="I233" t="s">
         <v>170</v>
-      </c>
-      <c r="H233" t="s">
-        <v>161</v>
-      </c>
-      <c r="I233" t="s">
-        <v>173</v>
       </c>
       <c r="M233" s="19" t="str">
         <f t="shared" si="28"/>
@@ -16001,13 +15810,13 @@
         <v>5</v>
       </c>
       <c r="G235" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H235" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I235" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M235" s="19" t="str">
         <f t="shared" si="28"/>
@@ -16055,13 +15864,13 @@
         <v>6</v>
       </c>
       <c r="G236" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H236" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I236" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M236" s="19" t="str">
         <f t="shared" si="28"/>
@@ -16109,13 +15918,13 @@
         <v>7</v>
       </c>
       <c r="G237" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H237" t="s">
+        <v>159</v>
+      </c>
+      <c r="I237" t="s">
         <v>162</v>
-      </c>
-      <c r="I237" t="s">
-        <v>165</v>
       </c>
       <c r="M237" s="19" t="str">
         <f t="shared" si="28"/>
@@ -16208,13 +16017,13 @@
         <v>5</v>
       </c>
       <c r="G239" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H239" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I239" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M239" s="19" t="str">
         <f t="shared" si="28"/>
@@ -16262,13 +16071,13 @@
         <v>6</v>
       </c>
       <c r="G240" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H240" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I240" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M240" s="19" t="str">
         <f t="shared" si="28"/>
@@ -16316,13 +16125,13 @@
         <v>7</v>
       </c>
       <c r="G241" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H241" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I241" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M241" s="19" t="str">
         <f t="shared" si="28"/>
@@ -16370,10 +16179,10 @@
         <v>8</v>
       </c>
       <c r="F242" t="s">
-        <v>140</v>
-      </c>
-      <c r="J242" t="s">
-        <v>32</v>
+        <v>138</v>
+      </c>
+      <c r="J242">
+        <v>1</v>
       </c>
       <c r="M242" s="19" t="str">
         <f t="shared" si="28"/>
@@ -16421,7 +16230,7 @@
         <v>8</v>
       </c>
       <c r="F243" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M243" s="19" t="str">
         <f t="shared" si="28"/>
@@ -16514,17 +16323,17 @@
         <v>5</v>
       </c>
       <c r="G245" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="H245" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="I245" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M245" s="19" t="str">
         <f t="shared" si="28"/>
-        <v>There is a high level of ongoing development activity. Few issues are created or closed. The component is in the early half of its lifecycle. Development is likely to continue. Do not expect too much influence on the development agenda of the component.</v>
+        <v>There is a high level of ongoing development activity. The project may be working on a new release. Few issues are created or closed, indicating low levels of support. The component is in the early half of its lifecycle. Development is likely to continue. Do not expect too much influence on the development agenda of the component.</v>
       </c>
       <c r="Q245">
         <f t="shared" si="22"/>
@@ -16568,17 +16377,17 @@
         <v>6</v>
       </c>
       <c r="G246" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="H246" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="I246" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M246" s="19" t="str">
         <f t="shared" si="28"/>
-        <v>There is a high level of ongoing development activity. Few issues are created or closed. The component is in the early half of its lifecycle. Development is likely to continue. Do not expect too much influence on the development agenda of the component.</v>
+        <v>There is a high level of ongoing development activity. The project may be working on a new release. Few issues are created or closed, indicating low levels of support. The component is in the early half of its lifecycle. Development is likely to continue. Do not expect too much influence on the development agenda of the component.</v>
       </c>
       <c r="Q246">
         <f t="shared" si="22"/>
@@ -16622,20 +16431,20 @@
         <v>7</v>
       </c>
       <c r="G247" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="H247" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="I247" t="s">
-        <v>176</v>
-      </c>
-      <c r="L247" t="s">
-        <v>32</v>
+        <v>173</v>
+      </c>
+      <c r="L247">
+        <v>1</v>
       </c>
       <c r="M247" s="19" t="str">
         <f t="shared" si="28"/>
-        <v>There is a high level of ongoing development activity. Few issues are created or closed. The component is in the early half of its lifecycle. Development is likely to continue. Do not expect too much influence on the development agenda of the component.</v>
+        <v>There is a high level of ongoing development activity. The project may be working on a new release. Few issues are created or closed, indicating low levels of support. The component is in the early half of its lifecycle. Development is likely to continue. Do not expect too much influence on the development agenda of the component.</v>
       </c>
       <c r="Q247">
         <f t="shared" si="22"/>
@@ -16679,7 +16488,7 @@
         <v>8</v>
       </c>
       <c r="F248" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M248" s="19" t="str">
         <f t="shared" si="28"/>
@@ -16727,17 +16536,17 @@
         <v>5</v>
       </c>
       <c r="G249" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H249" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I249" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="M249" s="19" t="str">
         <f t="shared" si="28"/>
-        <v>There is a high level of ongoing development activity. Issues are being closed, but not many new issues are created. Development is likely to continue, but do not expect too much influence on the development agenda of the component.</v>
+        <v>There is a high level of ongoing development activity. Issues are being closed, but not many new issues are created. Development is likely to continue.</v>
       </c>
       <c r="Q249">
         <f t="shared" si="22"/>
@@ -16780,21 +16589,24 @@
       <c r="E250" t="s">
         <v>6</v>
       </c>
+      <c r="F250" t="s">
+        <v>227</v>
+      </c>
       <c r="G250" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H250" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I250" t="s">
-        <v>175</v>
-      </c>
-      <c r="J250" t="s">
-        <v>32</v>
+        <v>123</v>
+      </c>
+      <c r="J250">
+        <v>-1</v>
       </c>
       <c r="M250" s="19" t="str">
         <f t="shared" si="28"/>
-        <v>There is a high level of ongoing development activity. Issues are being closed, but not many new issues are created. Development is likely to continue, but do not expect too much influence on the development agenda of the component.</v>
+        <v>There is a high level of ongoing development activity. Issues are being closed, but not many new issues are created. Development is likely to continue.</v>
       </c>
       <c r="Q250">
         <f t="shared" si="22"/>
@@ -16838,17 +16650,17 @@
         <v>7</v>
       </c>
       <c r="G251" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H251" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I251" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="M251" s="19" t="str">
         <f t="shared" si="28"/>
-        <v>There is a high level of ongoing development activity. Issues are being closed, but not many new issues are created. Development is likely to continue, but do not expect too much influence on the development agenda of the component.</v>
+        <v>There is a high level of ongoing development activity. Issues are being closed, but not many new issues are created. Development is likely to continue.</v>
       </c>
       <c r="Q251">
         <f t="shared" si="22"/>
@@ -16937,20 +16749,20 @@
         <v>5</v>
       </c>
       <c r="G253" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H253" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I253" t="s">
-        <v>175</v>
-      </c>
-      <c r="K253" t="s">
-        <v>32</v>
+        <v>123</v>
+      </c>
+      <c r="K253">
+        <v>-1</v>
       </c>
       <c r="M253" s="19" t="str">
         <f t="shared" si="28"/>
-        <v>There is a high level of ongoing development activity. Few new issues are created, but many old are closed. The project may recently have had a major release. Development is likely to continue, but do not expect too much influence on the development agenda of the component.</v>
+        <v>There is a high level of ongoing development activity. Few new issues are created, but many old are closed. The project may recently have had a major release. Development is likely to continue.</v>
       </c>
       <c r="Q253">
         <f t="shared" si="22"/>
@@ -16994,17 +16806,17 @@
         <v>6</v>
       </c>
       <c r="G254" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H254" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I254" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="M254" s="19" t="str">
         <f t="shared" si="28"/>
-        <v>There is a high level of ongoing development activity. Few new issues are created, but many old are closed. The project may recently have had a major release. Development is likely to continue, but do not expect too much influence on the development agenda of the component.</v>
+        <v>There is a high level of ongoing development activity. Few new issues are created, but many old are closed. The project may recently have had a major release. Development is likely to continue.</v>
       </c>
       <c r="Q254">
         <f t="shared" si="22"/>
@@ -17048,17 +16860,17 @@
         <v>7</v>
       </c>
       <c r="G255" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H255" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I255" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="M255" s="19" t="str">
         <f t="shared" si="28"/>
-        <v>There is a high level of ongoing development activity. Few new issues are created, but many old are closed. The project may recently have had a major release. Development is likely to continue, but do not expect too much influence on the development agenda of the component.</v>
+        <v>There is a high level of ongoing development activity. Few new issues are created, but many old are closed. The project may recently have had a major release. Development is likely to continue.</v>
       </c>
       <c r="Q255">
         <f t="shared" si="22"/>
@@ -17102,7 +16914,7 @@
         <v>8</v>
       </c>
       <c r="F256" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M256" s="19" t="str">
         <f t="shared" si="28"/>
@@ -17195,13 +17007,13 @@
         <v>5</v>
       </c>
       <c r="G258" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H258" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I258" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M258" s="19" t="str">
         <f t="shared" si="28"/>
@@ -17249,13 +17061,13 @@
         <v>6</v>
       </c>
       <c r="G259" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H259" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I259" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M259" s="19" t="str">
         <f t="shared" si="28"/>
@@ -17303,13 +17115,13 @@
         <v>7</v>
       </c>
       <c r="G260" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H260" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I260" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M260" s="19" t="str">
         <f t="shared" si="28"/>
@@ -17402,13 +17214,13 @@
         <v>5</v>
       </c>
       <c r="G262" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H262" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I262" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M262" s="19" t="str">
         <f t="shared" si="28"/>
@@ -17455,23 +17267,26 @@
       <c r="E263" t="s">
         <v>6</v>
       </c>
+      <c r="F263" t="s">
+        <v>200</v>
+      </c>
       <c r="G263" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H263" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I263" t="s">
-        <v>157</v>
-      </c>
-      <c r="J263" t="s">
-        <v>32</v>
-      </c>
-      <c r="K263" t="s">
-        <v>32</v>
-      </c>
-      <c r="L263" t="s">
-        <v>32</v>
+        <v>154</v>
+      </c>
+      <c r="J263">
+        <v>1</v>
+      </c>
+      <c r="K263">
+        <v>-1</v>
+      </c>
+      <c r="L263">
+        <v>1</v>
       </c>
       <c r="M263" s="19" t="str">
         <f t="shared" si="28"/>
@@ -17518,21 +17333,24 @@
       <c r="E264" t="s">
         <v>7</v>
       </c>
+      <c r="F264" t="s">
+        <v>201</v>
+      </c>
       <c r="G264" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="H264" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I264" t="s">
-        <v>157</v>
-      </c>
-      <c r="L264" t="s">
-        <v>32</v>
+        <v>203</v>
+      </c>
+      <c r="L264">
+        <v>1</v>
       </c>
       <c r="M264" s="19" t="str">
         <f t="shared" si="28"/>
-        <v>There is a high level of ongoing development activity. Component usage is generating issues, and issues are closed at (rouughly) the same pace as they are being created. This component is in the middle of its lifecycle.</v>
+        <v>There is a high level of ongoing development activity. There are many forks, implying that new development is either easy on the component or that it's current direction is not what users want. Component usage is generating issues, and issues are closed at (rouughly) the same pace as they are being created. This component is in the middle of its lifecycle. More functionality may be available in one of the forks.</v>
       </c>
       <c r="Q264">
         <f t="shared" si="29"/>
@@ -17575,8 +17393,11 @@
       <c r="E265" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K265" t="s">
-        <v>32</v>
+      <c r="F265" t="s">
+        <v>246</v>
+      </c>
+      <c r="K265">
+        <v>1</v>
       </c>
       <c r="M265" s="19" t="str">
         <f t="shared" ref="M265:M298" si="35">CONCATENATE(G265," ",H265," ",I265)</f>
@@ -17624,13 +17445,13 @@
         <v>5</v>
       </c>
       <c r="G266" t="s">
+        <v>171</v>
+      </c>
+      <c r="H266" t="s">
         <v>174</v>
       </c>
-      <c r="H266" t="s">
-        <v>177</v>
-      </c>
       <c r="I266" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M266" s="19" t="str">
         <f t="shared" si="35"/>
@@ -17678,13 +17499,13 @@
         <v>6</v>
       </c>
       <c r="G267" t="s">
+        <v>171</v>
+      </c>
+      <c r="H267" t="s">
         <v>174</v>
       </c>
-      <c r="H267" t="s">
-        <v>177</v>
-      </c>
       <c r="I267" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M267" s="19" t="str">
         <f t="shared" si="35"/>
@@ -17731,17 +17552,20 @@
       <c r="E268" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="F268" t="s">
+        <v>228</v>
+      </c>
       <c r="G268" t="s">
+        <v>171</v>
+      </c>
+      <c r="H268" t="s">
         <v>174</v>
       </c>
-      <c r="H268" t="s">
-        <v>177</v>
-      </c>
       <c r="I268" t="s">
-        <v>157</v>
-      </c>
-      <c r="J268" t="s">
-        <v>32</v>
+        <v>154</v>
+      </c>
+      <c r="J268">
+        <v>-1</v>
       </c>
       <c r="M268" s="19" t="str">
         <f t="shared" si="35"/>
@@ -17789,7 +17613,7 @@
         <v>8</v>
       </c>
       <c r="F269" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M269" s="19" t="str">
         <f t="shared" si="35"/>
@@ -17882,13 +17706,13 @@
         <v>5</v>
       </c>
       <c r="G271" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H271" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I271" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M271" s="19" t="str">
         <f t="shared" si="35"/>
@@ -17936,13 +17760,13 @@
         <v>6</v>
       </c>
       <c r="G272" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H272" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I272" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M272" s="19" t="str">
         <f t="shared" si="35"/>
@@ -17990,13 +17814,13 @@
         <v>7</v>
       </c>
       <c r="G273" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H273" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I273" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M273" s="19" t="str">
         <f t="shared" si="35"/>
@@ -18089,13 +17913,13 @@
         <v>5</v>
       </c>
       <c r="G275" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H275" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I275" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M275" s="19" t="str">
         <f t="shared" si="35"/>
@@ -18143,16 +17967,16 @@
         <v>6</v>
       </c>
       <c r="G276" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H276" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I276" t="s">
-        <v>175</v>
-      </c>
-      <c r="K276" t="s">
-        <v>32</v>
+        <v>172</v>
+      </c>
+      <c r="K276">
+        <v>1</v>
       </c>
       <c r="M276" s="19" t="str">
         <f t="shared" si="35"/>
@@ -18200,16 +18024,16 @@
         <v>7</v>
       </c>
       <c r="G277" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H277" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I277" t="s">
-        <v>175</v>
-      </c>
-      <c r="J277" t="s">
-        <v>32</v>
+        <v>172</v>
+      </c>
+      <c r="J277">
+        <v>1</v>
       </c>
       <c r="M277" s="19" t="str">
         <f t="shared" si="35"/>
@@ -18301,17 +18125,20 @@
       <c r="E279" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F279" t="s">
+        <v>204</v>
+      </c>
       <c r="G279" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H279" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I279" t="s">
-        <v>157</v>
-      </c>
-      <c r="L279" t="s">
-        <v>32</v>
+        <v>154</v>
+      </c>
+      <c r="L279">
+        <v>1</v>
       </c>
       <c r="M279" s="19" t="str">
         <f t="shared" si="35"/>
@@ -18359,13 +18186,13 @@
         <v>6</v>
       </c>
       <c r="G280" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H280" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I280" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M280" s="19" t="str">
         <f t="shared" si="35"/>
@@ -18413,13 +18240,13 @@
         <v>7</v>
       </c>
       <c r="G281" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H281" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I281" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M281" s="19" t="str">
         <f t="shared" si="35"/>
@@ -18467,7 +18294,7 @@
         <v>8</v>
       </c>
       <c r="F282" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M282" s="19" t="str">
         <f t="shared" si="35"/>
@@ -18559,8 +18386,11 @@
       <c r="E284" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K284" t="s">
-        <v>32</v>
+      <c r="F284" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="K284">
+        <v>1</v>
       </c>
       <c r="M284" s="19" t="str">
         <f t="shared" si="35"/>
@@ -18608,13 +18438,13 @@
         <v>5</v>
       </c>
       <c r="G285" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H285" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I285" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M285" s="19" t="str">
         <f t="shared" si="35"/>
@@ -18662,13 +18492,13 @@
         <v>6</v>
       </c>
       <c r="G286" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H286" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I286" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M286" s="19" t="str">
         <f t="shared" si="35"/>
@@ -18716,13 +18546,13 @@
         <v>7</v>
       </c>
       <c r="G287" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H287" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I287" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M287" s="19" t="str">
         <f t="shared" si="35"/>
@@ -18815,13 +18645,13 @@
         <v>5</v>
       </c>
       <c r="G289" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H289" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I289" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M289" s="19" t="str">
         <f t="shared" si="35"/>
@@ -18869,13 +18699,13 @@
         <v>6</v>
       </c>
       <c r="G290" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H290" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I290" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M290" s="19" t="str">
         <f t="shared" si="35"/>
@@ -18923,13 +18753,13 @@
         <v>7</v>
       </c>
       <c r="G291" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H291" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I291" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M291" s="19" t="str">
         <f t="shared" si="35"/>
@@ -19021,17 +18851,20 @@
       <c r="E293" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F293" t="s">
+        <v>205</v>
+      </c>
       <c r="G293" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H293" t="s">
+        <v>169</v>
+      </c>
+      <c r="I293" t="s">
         <v>172</v>
       </c>
-      <c r="I293" t="s">
-        <v>175</v>
-      </c>
-      <c r="L293" t="s">
-        <v>32</v>
+      <c r="L293">
+        <v>0.5</v>
       </c>
       <c r="M293" s="19" t="str">
         <f t="shared" si="35"/>
@@ -19079,13 +18912,13 @@
         <v>6</v>
       </c>
       <c r="G294" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H294" t="s">
+        <v>169</v>
+      </c>
+      <c r="I294" t="s">
         <v>172</v>
-      </c>
-      <c r="I294" t="s">
-        <v>175</v>
       </c>
       <c r="M294" s="19" t="str">
         <f t="shared" si="35"/>
@@ -19133,13 +18966,13 @@
         <v>7</v>
       </c>
       <c r="G295" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H295" t="s">
+        <v>169</v>
+      </c>
+      <c r="I295" t="s">
         <v>172</v>
-      </c>
-      <c r="I295" t="s">
-        <v>175</v>
       </c>
       <c r="M295" s="19" t="str">
         <f t="shared" si="35"/>
@@ -19186,12 +19019,24 @@
       <c r="E296" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J296" t="s">
-        <v>32</v>
+      <c r="F296" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="G296" t="s">
+        <v>230</v>
+      </c>
+      <c r="H296" t="s">
+        <v>231</v>
+      </c>
+      <c r="I296" t="s">
+        <v>232</v>
+      </c>
+      <c r="J296">
+        <v>1</v>
       </c>
       <c r="M296" s="19" t="str">
         <f t="shared" si="35"/>
-        <v xml:space="preserve">  </v>
+        <v>There is a lot of new development in this project, however the number of forks is unknown. Some new issues are created, however the level of support (response) is unknown. Not enough is known about support, however development is on-going.</v>
       </c>
       <c r="Q296">
         <f t="shared" si="29"/>
@@ -19280,13 +19125,13 @@
         <v>5</v>
       </c>
       <c r="G298" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H298" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I298" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M298" s="19" t="str">
         <f t="shared" si="35"/>
@@ -19334,13 +19179,13 @@
         <v>6</v>
       </c>
       <c r="G299" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H299" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I299" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M299" s="19" t="str">
         <f>CONCATENATE(G299," ",H299," ",I299)</f>
@@ -19388,13 +19233,13 @@
         <v>7</v>
       </c>
       <c r="G300" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H300" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I300" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M300" s="19" t="str">
         <f t="shared" ref="M300:M361" si="36">CONCATENATE(G300," ",H300," ",I300)</f>
@@ -19487,13 +19332,13 @@
         <v>5</v>
       </c>
       <c r="G302" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H302" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I302" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M302" s="19" t="str">
         <f t="shared" si="36"/>
@@ -19541,13 +19386,13 @@
         <v>6</v>
       </c>
       <c r="G303" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H303" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I303" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M303" s="19" t="str">
         <f t="shared" si="36"/>
@@ -19595,13 +19440,13 @@
         <v>7</v>
       </c>
       <c r="G304" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H304" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I304" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M304" s="19" t="str">
         <f t="shared" si="36"/>
@@ -19648,8 +19493,11 @@
       <c r="E305" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K305" t="s">
-        <v>32</v>
+      <c r="F305" t="s">
+        <v>248</v>
+      </c>
+      <c r="K305">
+        <v>1</v>
       </c>
       <c r="M305" s="19" t="str">
         <f t="shared" si="36"/>
@@ -19697,13 +19545,13 @@
         <v>5</v>
       </c>
       <c r="G306" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H306" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I306" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M306" s="19" t="str">
         <f t="shared" si="36"/>
@@ -19751,13 +19599,13 @@
         <v>6</v>
       </c>
       <c r="G307" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H307" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I307" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M307" s="19" t="str">
         <f t="shared" si="36"/>
@@ -19804,23 +19652,26 @@
       <c r="E308" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="F308" t="s">
+        <v>206</v>
+      </c>
       <c r="G308" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H308" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I308" t="s">
-        <v>157</v>
-      </c>
-      <c r="J308" t="s">
-        <v>32</v>
-      </c>
-      <c r="K308" t="s">
-        <v>32</v>
-      </c>
-      <c r="L308" t="s">
-        <v>32</v>
+        <v>154</v>
+      </c>
+      <c r="J308">
+        <v>1</v>
+      </c>
+      <c r="K308">
+        <v>1</v>
+      </c>
+      <c r="L308">
+        <v>1</v>
       </c>
       <c r="M308" s="19" t="str">
         <f t="shared" si="36"/>
@@ -19958,16 +19809,16 @@
         <v>5</v>
       </c>
       <c r="G311" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H311" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I311" t="s">
-        <v>175</v>
-      </c>
-      <c r="J311" t="s">
-        <v>32</v>
+        <v>172</v>
+      </c>
+      <c r="J311">
+        <v>1</v>
       </c>
       <c r="M311" s="19" t="str">
         <f t="shared" si="36"/>
@@ -20015,16 +19866,16 @@
         <v>6</v>
       </c>
       <c r="G312" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H312" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I312" t="s">
-        <v>175</v>
-      </c>
-      <c r="L312" t="s">
-        <v>32</v>
+        <v>172</v>
+      </c>
+      <c r="L312">
+        <v>0</v>
       </c>
       <c r="M312" s="19" t="str">
         <f t="shared" si="36"/>
@@ -20072,13 +19923,13 @@
         <v>7</v>
       </c>
       <c r="G313" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H313" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I313" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M313" s="19" t="str">
         <f t="shared" si="36"/>
@@ -20171,13 +20022,13 @@
         <v>5</v>
       </c>
       <c r="G315" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H315" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I315" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M315" s="19" t="str">
         <f t="shared" si="36"/>
@@ -20225,13 +20076,13 @@
         <v>6</v>
       </c>
       <c r="G316" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H316" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I316" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M316" s="19" t="str">
         <f t="shared" si="36"/>
@@ -20279,13 +20130,13 @@
         <v>7</v>
       </c>
       <c r="G317" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H317" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I317" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M317" s="19" t="str">
         <f t="shared" si="36"/>
@@ -20332,12 +20183,24 @@
       <c r="E318" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J318" t="s">
-        <v>32</v>
+      <c r="F318" t="s">
+        <v>233</v>
+      </c>
+      <c r="G318" t="s">
+        <v>230</v>
+      </c>
+      <c r="H318" t="s">
+        <v>234</v>
+      </c>
+      <c r="I318" t="s">
+        <v>235</v>
+      </c>
+      <c r="J318">
+        <v>1</v>
       </c>
       <c r="M318" s="19" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">  </v>
+        <v>There is a lot of new development in this project, however the number of forks is unknown. Many issues are being closed at (roughly) the same rate as they are being created showing just enough support. The project is in stable development phase.</v>
       </c>
       <c r="Q318">
         <f t="shared" si="29"/>
@@ -20381,13 +20244,13 @@
         <v>5</v>
       </c>
       <c r="G319" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H319" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I319" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M319" s="19" t="str">
         <f t="shared" si="36"/>
@@ -20435,13 +20298,13 @@
         <v>6</v>
       </c>
       <c r="G320" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H320" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I320" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M320" s="19" t="str">
         <f t="shared" si="36"/>
@@ -20489,13 +20352,13 @@
         <v>7</v>
       </c>
       <c r="G321" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H321" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I321" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M321" s="19" t="str">
         <f t="shared" si="36"/>
@@ -20543,7 +20406,7 @@
         <v>8</v>
       </c>
       <c r="F322" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M322" s="19" t="str">
         <f t="shared" si="36"/>
@@ -20681,13 +20544,13 @@
         <v>5</v>
       </c>
       <c r="G325" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H325" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I325" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M325" s="19" t="str">
         <f t="shared" si="36"/>
@@ -20735,13 +20598,13 @@
         <v>6</v>
       </c>
       <c r="G326" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H326" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I326" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M326" s="19" t="str">
         <f t="shared" si="36"/>
@@ -20789,13 +20652,13 @@
         <v>7</v>
       </c>
       <c r="G327" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H327" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I327" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M327" s="19" t="str">
         <f t="shared" si="36"/>
@@ -20888,17 +20751,17 @@
         <v>5</v>
       </c>
       <c r="G329" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H329" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I329" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="M329" s="19" t="str">
         <f t="shared" si="36"/>
-        <v>There is a high level of ongoing development activity. The component may recently have had a release. Issues are being closed, but not many new issues are created. Development is likely to continue, but do not expect too much influence on the development agenda of the component.</v>
+        <v>There is a high level of ongoing development activity. The component may recently have had a release. Issues are being closed, but not many new issues are created. Development is likely to continue.</v>
       </c>
       <c r="Q329">
         <f t="shared" si="37"/>
@@ -20942,20 +20805,20 @@
         <v>6</v>
       </c>
       <c r="G330" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H330" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I330" t="s">
-        <v>175</v>
-      </c>
-      <c r="K330" t="s">
-        <v>32</v>
+        <v>123</v>
+      </c>
+      <c r="K330">
+        <v>-1</v>
       </c>
       <c r="M330" s="19" t="str">
         <f t="shared" si="36"/>
-        <v>There is a high level of ongoing development activity. The component may recently have had a release. Issues are being closed, but not many new issues are created. Development is likely to continue, but do not expect too much influence on the development agenda of the component.</v>
+        <v>There is a high level of ongoing development activity. The component may recently have had a release. Issues are being closed, but not many new issues are created. Development is likely to continue.</v>
       </c>
       <c r="Q330">
         <f t="shared" si="37"/>
@@ -20999,17 +20862,17 @@
         <v>7</v>
       </c>
       <c r="G331" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H331" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I331" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="M331" s="19" t="str">
         <f t="shared" si="36"/>
-        <v>There is a high level of ongoing development activity. The component may recently have had a release. Issues are being closed, but not many new issues are created. Development is likely to continue, but do not expect too much influence on the development agenda of the component.</v>
+        <v>There is a high level of ongoing development activity. The component may recently have had a release. Issues are being closed, but not many new issues are created. Development is likely to continue.</v>
       </c>
       <c r="Q331">
         <f t="shared" si="37"/>
@@ -21052,8 +20915,8 @@
       <c r="E332" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L332" t="s">
-        <v>32</v>
+      <c r="L332">
+        <v>0.5</v>
       </c>
       <c r="M332" s="19" t="str">
         <f t="shared" si="36"/>
@@ -21101,17 +20964,17 @@
         <v>5</v>
       </c>
       <c r="G333" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H333" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I333" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="M333" s="19" t="str">
         <f t="shared" si="36"/>
-        <v>There is a high level of ongoing development activity. The component may recently have had a release. Few new issues are created, but many old are closed. Development is likely to continue, but do not expect too much influence on the development agenda of the component.</v>
+        <v>There is a high level of ongoing development activity. The component may recently have had a release. Few new issues are created, but many old are closed. Development is likely to continue, but it is unclear how well known or popular the product is.</v>
       </c>
       <c r="Q333">
         <f t="shared" si="37"/>
@@ -21155,17 +21018,17 @@
         <v>6</v>
       </c>
       <c r="G334" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H334" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I334" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="M334" s="19" t="str">
         <f t="shared" si="36"/>
-        <v>There is a high level of ongoing development activity. The component may recently have had a release. Few new issues are created, but many old are closed. Development is likely to continue, but do not expect too much influence on the development agenda of the component.</v>
+        <v>There is a high level of ongoing development activity. The component may recently have had a release. Few new issues are created, but many old are closed. Development is likely to continue, but it is unclear how well known or popular the product is.</v>
       </c>
       <c r="Q334">
         <f t="shared" si="37"/>
@@ -21209,17 +21072,17 @@
         <v>7</v>
       </c>
       <c r="G335" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H335" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I335" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="M335" s="19" t="str">
         <f t="shared" si="36"/>
-        <v>There is a high level of ongoing development activity. The component may recently have had a release. Few new issues are created, but many old are closed. Development is likely to continue, but do not expect too much influence on the development agenda of the component.</v>
+        <v>There is a high level of ongoing development activity. The component may recently have had a release. Few new issues are created, but many old are closed. Development is likely to continue, but it is unclear how well known or popular the product is.</v>
       </c>
       <c r="Q335">
         <f t="shared" si="37"/>
@@ -21353,16 +21216,16 @@
         <v>5</v>
       </c>
       <c r="G338" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H338" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I338" t="s">
-        <v>175</v>
-      </c>
-      <c r="J338" t="s">
-        <v>32</v>
+        <v>172</v>
+      </c>
+      <c r="J338">
+        <v>1</v>
       </c>
       <c r="M338" s="19" t="str">
         <f t="shared" si="36"/>
@@ -21410,13 +21273,13 @@
         <v>6</v>
       </c>
       <c r="G339" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H339" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I339" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M339" s="19" t="str">
         <f t="shared" si="36"/>
@@ -21464,13 +21327,13 @@
         <v>7</v>
       </c>
       <c r="G340" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H340" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I340" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M340" s="19" t="str">
         <f t="shared" si="36"/>
@@ -21562,23 +21425,26 @@
       <c r="E342" t="s">
         <v>5</v>
       </c>
+      <c r="F342" t="s">
+        <v>208</v>
+      </c>
       <c r="G342" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H342" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I342" t="s">
-        <v>157</v>
-      </c>
-      <c r="J342" t="s">
-        <v>32</v>
-      </c>
-      <c r="K342" t="s">
-        <v>32</v>
-      </c>
-      <c r="L342" t="s">
-        <v>32</v>
+        <v>154</v>
+      </c>
+      <c r="J342">
+        <v>1</v>
+      </c>
+      <c r="K342">
+        <v>1</v>
+      </c>
+      <c r="L342">
+        <v>1</v>
       </c>
       <c r="M342" s="19" t="str">
         <f t="shared" si="36"/>
@@ -21626,13 +21492,13 @@
         <v>6</v>
       </c>
       <c r="G343" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H343" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I343" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M343" s="19" t="str">
         <f t="shared" si="36"/>
@@ -21680,16 +21546,16 @@
         <v>7</v>
       </c>
       <c r="G344" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H344" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I344" t="s">
-        <v>157</v>
-      </c>
-      <c r="K344" t="s">
-        <v>32</v>
+        <v>154</v>
+      </c>
+      <c r="K344">
+        <v>1</v>
       </c>
       <c r="M344" s="19" t="str">
         <f t="shared" si="36"/>
@@ -21782,13 +21648,13 @@
         <v>5</v>
       </c>
       <c r="G346" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H346" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I346" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M346" s="19" t="str">
         <f t="shared" si="36"/>
@@ -21836,13 +21702,13 @@
         <v>6</v>
       </c>
       <c r="G347" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H347" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I347" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M347" s="19" t="str">
         <f t="shared" si="36"/>
@@ -21890,13 +21756,13 @@
         <v>7</v>
       </c>
       <c r="G348" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H348" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I348" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M348" s="19" t="str">
         <f t="shared" si="36"/>
@@ -22034,13 +21900,13 @@
         <v>5</v>
       </c>
       <c r="G351" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H351" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I351" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M351" s="19" t="str">
         <f t="shared" si="36"/>
@@ -22088,16 +21954,16 @@
         <v>6</v>
       </c>
       <c r="G352" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H352" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I352" t="s">
-        <v>175</v>
-      </c>
-      <c r="J352" t="s">
-        <v>32</v>
+        <v>172</v>
+      </c>
+      <c r="J352">
+        <v>1</v>
       </c>
       <c r="M352" s="19" t="str">
         <f t="shared" si="36"/>
@@ -22145,13 +22011,13 @@
         <v>7</v>
       </c>
       <c r="G353" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H353" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I353" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M353" s="19" t="str">
         <f t="shared" si="36"/>
@@ -22244,13 +22110,13 @@
         <v>5</v>
       </c>
       <c r="G355" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H355" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I355" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M355" s="19" t="str">
         <f t="shared" si="36"/>
@@ -22298,16 +22164,16 @@
         <v>6</v>
       </c>
       <c r="G356" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H356" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I356" t="s">
-        <v>175</v>
-      </c>
-      <c r="J356" t="s">
-        <v>32</v>
+        <v>172</v>
+      </c>
+      <c r="J356">
+        <v>1</v>
       </c>
       <c r="M356" s="19" t="str">
         <f t="shared" si="36"/>
@@ -22355,13 +22221,13 @@
         <v>7</v>
       </c>
       <c r="G357" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H357" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I357" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M357" s="19" t="str">
         <f t="shared" si="36"/>
@@ -22454,13 +22320,13 @@
         <v>5</v>
       </c>
       <c r="G359" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H359" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I359" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M359" s="19" t="str">
         <f t="shared" si="36"/>
@@ -22508,13 +22374,13 @@
         <v>6</v>
       </c>
       <c r="G360" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H360" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I360" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M360" s="19" t="str">
         <f t="shared" si="36"/>
@@ -22562,13 +22428,13 @@
         <v>7</v>
       </c>
       <c r="G361" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H361" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I361" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M361" s="19" t="str">
         <f t="shared" si="36"/>
@@ -22606,66 +22472,200 @@
       <c r="M363" s="20"/>
     </row>
     <row r="364" spans="1:22">
-      <c r="M364" s="20"/>
+      <c r="I364" t="s">
+        <v>210</v>
+      </c>
+      <c r="J364" s="23"/>
+      <c r="K364" s="23"/>
+      <c r="L364" s="23"/>
+      <c r="M364" s="26" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="365" spans="1:22">
-      <c r="M365" s="20"/>
+      <c r="I365" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J365" s="23">
+        <f t="shared" ref="J365:J370" si="43">COUNTIF(J$2:J$361,CONCATENATE("=",$I365))</f>
+        <v>0</v>
+      </c>
+      <c r="K365" s="23">
+        <f t="shared" ref="K365:L370" si="44">COUNTIF(K$2:K$361,CONCATENATE("=",$I365))</f>
+        <v>0</v>
+      </c>
+      <c r="L365" s="23">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="M365" s="27">
+        <f>SUM(J365:L365)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="366" spans="1:22">
-      <c r="M366" s="20"/>
+      <c r="I366" s="23">
+        <v>-1</v>
+      </c>
+      <c r="J366" s="23">
+        <f t="shared" si="43"/>
+        <v>8</v>
+      </c>
+      <c r="K366" s="23">
+        <f t="shared" si="44"/>
+        <v>9</v>
+      </c>
+      <c r="L366" s="23">
+        <f t="shared" si="44"/>
+        <v>4</v>
+      </c>
+      <c r="M366" s="27">
+        <f t="shared" ref="M366:M371" si="45">SUM(J366:L366)</f>
+        <v>21</v>
+      </c>
     </row>
     <row r="367" spans="1:22">
-      <c r="M367" s="20"/>
+      <c r="I367" s="23">
+        <v>-0.5</v>
+      </c>
+      <c r="J367" s="23">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="K367" s="23">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="L367" s="23">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="M367" s="27">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="368" spans="1:22">
-      <c r="M368" s="20"/>
-    </row>
-    <row r="369" spans="13:13">
-      <c r="M369" s="20"/>
-    </row>
-    <row r="370" spans="13:13">
-      <c r="M370" s="20"/>
-    </row>
-    <row r="371" spans="13:13">
-      <c r="M371" s="20"/>
-    </row>
-    <row r="372" spans="13:13">
+      <c r="I368" s="23">
+        <v>0</v>
+      </c>
+      <c r="J368" s="23">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="K368" s="23">
+        <f t="shared" si="44"/>
+        <v>4</v>
+      </c>
+      <c r="L368" s="23">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="M368" s="27">
+        <f t="shared" si="45"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="369" spans="9:13">
+      <c r="I369" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="J369" s="23">
+        <f t="shared" si="43"/>
+        <v>3</v>
+      </c>
+      <c r="K369" s="23">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="L369" s="23">
+        <f t="shared" si="44"/>
+        <v>4</v>
+      </c>
+      <c r="M369" s="27">
+        <f t="shared" si="45"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="370" spans="9:13">
+      <c r="I370" s="23">
+        <v>1</v>
+      </c>
+      <c r="J370" s="23">
+        <f t="shared" si="43"/>
+        <v>28</v>
+      </c>
+      <c r="K370" s="23">
+        <f t="shared" si="44"/>
+        <v>17</v>
+      </c>
+      <c r="L370" s="23">
+        <f t="shared" si="44"/>
+        <v>19</v>
+      </c>
+      <c r="M370" s="27">
+        <f t="shared" si="45"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="371" spans="9:13">
+      <c r="I371" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="J371" s="26">
+        <f>SUM(J365:J370)</f>
+        <v>39</v>
+      </c>
+      <c r="K371" s="26">
+        <f>SUM(K365:K370)</f>
+        <v>31</v>
+      </c>
+      <c r="L371" s="26">
+        <f>SUM(L365:L370)</f>
+        <v>33</v>
+      </c>
+      <c r="M371" s="27">
+        <f t="shared" si="45"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="372" spans="9:13">
       <c r="M372" s="20"/>
     </row>
-    <row r="373" spans="13:13">
+    <row r="373" spans="9:13">
       <c r="M373" s="20"/>
     </row>
-    <row r="374" spans="13:13">
+    <row r="374" spans="9:13">
       <c r="M374" s="20"/>
     </row>
-    <row r="375" spans="13:13">
+    <row r="375" spans="9:13">
       <c r="M375" s="20"/>
     </row>
-    <row r="376" spans="13:13">
+    <row r="376" spans="9:13">
       <c r="M376" s="20"/>
     </row>
-    <row r="377" spans="13:13">
+    <row r="377" spans="9:13">
       <c r="M377" s="20"/>
     </row>
-    <row r="378" spans="13:13">
+    <row r="378" spans="9:13">
       <c r="M378" s="20"/>
     </row>
-    <row r="379" spans="13:13">
+    <row r="379" spans="9:13">
       <c r="M379" s="20"/>
     </row>
-    <row r="380" spans="13:13">
+    <row r="380" spans="9:13">
       <c r="M380" s="20"/>
     </row>
-    <row r="381" spans="13:13">
+    <row r="381" spans="9:13">
       <c r="M381" s="20"/>
     </row>
-    <row r="382" spans="13:13">
+    <row r="382" spans="9:13">
       <c r="M382" s="20"/>
     </row>
-    <row r="383" spans="13:13">
+    <row r="383" spans="9:13">
       <c r="M383" s="20"/>
     </row>
-    <row r="384" spans="13:13">
+    <row r="384" spans="9:13">
       <c r="M384" s="20"/>
     </row>
     <row r="385" spans="13:13">
@@ -22714,49 +22714,139 @@
       <c r="M399" s="20"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N299:XFD361 A298:F300 A322:L324 A301:G321 J299:L321 A285:G297 J289:XFD298 I285:XFD288 A325:F361 J325:L361 A2:XFD284">
-    <cfRule type="expression" dxfId="95" priority="9">
+  <conditionalFormatting sqref="N299:XFD361 A298:F300 A322:L324 A301:G317 J299:L321 A285:G295 J289:XFD298 I285:XFD288 A325:F361 J325:L361 A28:XFD36 A27:E27 G27:XFD27 A79:XFD105 A78:E78 J78:XFD78 A2:XFD24 A37:E39 G37:XFD39 A40:XFD46 A109:E110 G109:XFD110 A111:XFD118 A119:H121 J119:XFD121 A122:XFD167 A169:XFD188 A168:E168 J168:XFD168 A194:XFD203 A193:E193 G193:XFD193 A204:E204 G204:XFD204 A297:G297 A296:E296 A319:G321 A318:E318 A26:XFD26 A25:E25 G25:XFD25 A48:XFD77 A47:E47 G47:XFD47 A107:XFD108 A106:E106 G106:XFD106 A190:XFD192 A189:E189 G189:XFD189 A205:XFD264 A266:XFD283 A265:E265 G265:XFD265 A284:E284 G284:XFD284">
+    <cfRule type="expression" dxfId="35" priority="27">
       <formula>$V2&lt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M299:M361">
-    <cfRule type="expression" dxfId="96" priority="8">
+    <cfRule type="expression" dxfId="34" priority="26">
       <formula>$V299&lt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G298:G300">
-    <cfRule type="expression" dxfId="29" priority="7">
+    <cfRule type="expression" dxfId="33" priority="25">
       <formula>$V298&lt;5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H285:H321">
-    <cfRule type="expression" dxfId="22" priority="6">
+  <conditionalFormatting sqref="H285:H295 H297:H317 H319:H321">
+    <cfRule type="expression" dxfId="32" priority="24">
       <formula>$V285&lt;5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I289:I321">
-    <cfRule type="expression" dxfId="15" priority="5">
+  <conditionalFormatting sqref="I289:I295 I297:I317 I319:I321">
+    <cfRule type="expression" dxfId="31" priority="23">
       <formula>$V289&lt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G341:G361 G325:G337 I325:I328">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="30" priority="22">
       <formula>$V325&lt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G338:G340">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="29" priority="21">
       <formula>$V338&lt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H325:H361">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="28" priority="20">
       <formula>$V325&lt;5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I329:I361">
-    <cfRule type="expression" dxfId="6" priority="1">
+  <conditionalFormatting sqref="I364 I329:I361">
+    <cfRule type="expression" dxfId="27" priority="19">
       <formula>$V329&lt;5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="expression" dxfId="26" priority="18">
+      <formula>$W27&lt;5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="expression" dxfId="25" priority="17">
+      <formula>$W37&lt;5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="expression" dxfId="24" priority="16">
+      <formula>$W38&lt;5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F78:I78">
+    <cfRule type="expression" dxfId="23" priority="15">
+      <formula>$W78&lt;5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F109">
+    <cfRule type="expression" dxfId="22" priority="14">
+      <formula>$W109&lt;5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="expression" dxfId="21" priority="13">
+      <formula>$V39&lt;5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F110">
+    <cfRule type="expression" dxfId="20" priority="12">
+      <formula>$V96&lt;5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I119:I121">
+    <cfRule type="expression" dxfId="19" priority="11">
+      <formula>$V119&lt;5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F168:I168">
+    <cfRule type="expression" dxfId="18" priority="10">
+      <formula>$V168&lt;5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F193">
+    <cfRule type="expression" dxfId="17" priority="9">
+      <formula>$V193&lt;5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F204">
+    <cfRule type="expression" dxfId="16" priority="8">
+      <formula>$V204&lt;5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F296:I296">
+    <cfRule type="expression" dxfId="15" priority="7">
+      <formula>$V296&lt;5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F318:I318">
+    <cfRule type="expression" dxfId="14" priority="6">
+      <formula>$V318&lt;5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="expression" dxfId="13" priority="5">
+      <formula>$V25&lt;5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="expression" dxfId="12" priority="4">
+      <formula>$V47&lt;5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F106">
+    <cfRule type="expression" dxfId="11" priority="3">
+      <formula>$V106&lt;5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F189">
+    <cfRule type="expression" dxfId="10" priority="2">
+      <formula>$V189&lt;5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F265">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$V265&lt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22880,7 +22970,7 @@
       </c>
       <c r="F5" t="str">
         <f>Review!M5</f>
-        <v>There is little new development in this project. Few issues are created or closed, indicating low levels of support. The project may be abandoned.</v>
+        <v>There is little new development in this project. Few issues are created or closed, indicating low levels of support or that the product is of so high quality that no new issues need to be created. The project may be abandoned.</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -22906,7 +22996,7 @@
       </c>
       <c r="F6" t="str">
         <f>Review!M6</f>
-        <v>There is little new development in this project. Few issues are created or closed, indicating low levels of support. One of the recent forks may have taken over.</v>
+        <v>There is little new development in this project. Few issues are created or closed, indicating low levels of support or that the product is of so high quality that no new issues need to be created. One of the recent forks may have taken over.</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -22932,7 +23022,7 @@
       </c>
       <c r="F7" t="str">
         <f>Review!M7</f>
-        <v>There is little new development in this project, but people still fork it. Few issues are created or closed, indicating low levels of support. Do not expect new development.</v>
+        <v>There is little new development in this project, but people still fork it. Few issues are created or closed, indicating low levels of support or that the product is of so high quality that no new issues need to be created. Do not expect new development.</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -22984,7 +23074,7 @@
       </c>
       <c r="F9" t="str">
         <f>Review!M9</f>
-        <v>There is little new development in this project. Issues are being closed, but not many new issues are created. The project is in a stable maintenance phase.</v>
+        <v>There is little new development in this project. Issues are being closed, but not many new issues are created. The project may be abandoned.</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -23010,7 +23100,7 @@
       </c>
       <c r="F10" t="str">
         <f>Review!M10</f>
-        <v>There is little new development in this project. Issues are being closed, but not many new issues are created. The project is in a stable maintenance phase.</v>
+        <v>There is little new development in this project. Issues are being closed, but not many new issues are created. One of the recent forks may have taken over.</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -23036,7 +23126,7 @@
       </c>
       <c r="F11" t="str">
         <f>Review!M11</f>
-        <v>There is little new development in this project, but people still fork it. Issues are being closed, but not many new issues are created. The project is in a stable maintenance phase, and is still popular.</v>
+        <v>There is little new development in this project, but people still fork it. Issues are being closed, but not many new issues are created. Do not expect new development.</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -23088,7 +23178,7 @@
       </c>
       <c r="F13" t="str">
         <f>Review!M13</f>
-        <v>There is little new development in this project. Few new issues are created, but many old are closed. Do not expect new development. The project is in a stable maintenance phase.</v>
+        <v>There is little new development in this project. Few new issues are created, but many old are closed. Do not expect new development. The project may be abandoned.</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -23114,7 +23204,7 @@
       </c>
       <c r="F14" t="str">
         <f>Review!M14</f>
-        <v>There is little new development in this project. Few new issues are created, but many old are closed. Do not expect new development. The project is in a stable maintenance phase.</v>
+        <v>There is little new development in this project. Few new issues are created, but many old are closed. Do not expect new development. One of the recent forks may have taken over.</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -23140,7 +23230,7 @@
       </c>
       <c r="F15" t="str">
         <f>Review!M15</f>
-        <v>There is little new development in this project, but people still fork it. Few new issues are created, but many old are closed. Do not expect new development. The project is in a stable maintenance phase, and is still popular.</v>
+        <v>There is little new development in this project, but people still fork it. Few new issues are created, but many old are closed. Do not expect new development. Do not expect new development.</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -23712,7 +23802,7 @@
       </c>
       <c r="F37" t="str">
         <f>Review!M37</f>
-        <v>There is little new development in this project, but people still fork it. Many new issues are created, and some are being closed but not at the same rate. The project is understaffed and in a stable maintenance mode. It is still a popular project, but may be at risk of becoming phased out.</v>
+        <v>There is little new development in this project, but people still fork it. Many new issues are created, and some are being closed but not at the same rate. The project is understaffed and in a stable maintenance mode. It is still a popular project, but may be at risk of becoming phased out due to understaffing.</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -23764,7 +23854,7 @@
       </c>
       <c r="F39" t="str">
         <f>Review!M39</f>
-        <v xml:space="preserve">There is little new development in this project. Issues are being closed at (roughly) the same rate as they are being created. </v>
+        <v>There is little new development in this project. Issues are being closed at (roughly) the same rate as they are being created. The project is in a healthy maintenance phase.</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -23790,7 +23880,7 @@
       </c>
       <c r="F40" t="str">
         <f>Review!M40</f>
-        <v xml:space="preserve">There is little new development in this project. Issues are being closed at (roughly) the same rate as they are being created. </v>
+        <v>There is little new development in this project. Issues are being closed at (roughly) the same rate as they are being created. The project is in a healthy maintenance phase.</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -23816,7 +23906,7 @@
       </c>
       <c r="F41" t="str">
         <f>Review!M41</f>
-        <v xml:space="preserve">There is little new development in this project, but people still fork it. Issues are being closed at (roughly) the same rate as they are being created. </v>
+        <v>There is little new development in this project, but people still fork it. Issues are being closed at (roughly) the same rate as they are being created. The project is in a healthy maintenance phase.</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -23920,7 +24010,7 @@
       </c>
       <c r="F45" t="str">
         <f>Review!M45</f>
-        <v>There is little new development in this project. Few issues are created or closed, indicating low levels of support. Do not expect new development.</v>
+        <v>There is some, but still little, new development in this project. Few issues are created or closed, indicating low levels of support or that the product is of so high quality that no new issues need to be created. Do not expect new development.</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -23946,7 +24036,7 @@
       </c>
       <c r="F46" t="str">
         <f>Review!M46</f>
-        <v>There is little new development in this project. Few issues are created or closed, indicating low levels of support. One of the recent forks may have taken over.</v>
+        <v>There is some, but still little, new development in this project. Few issues are created or closed, indicating low levels of support or that the product is of so high quality that no new issues need to be created. The project seems to be maintained but some fork may have taken over.</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -23972,7 +24062,7 @@
       </c>
       <c r="F47" t="str">
         <f>Review!M47</f>
-        <v>There is little new development in this project, but people still fork it. Few issues are created or closed, indicating low levels of support. Do not expect new development.</v>
+        <v>There is some, but still little, new development in this project. People still fork it. Few issues are created or closed, indicating low levels of support or that the product is of so high quality that no new issues need to be created. Do not expect new development.</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -24128,7 +24218,7 @@
       </c>
       <c r="F53" t="str">
         <f>Review!M53</f>
-        <v>There is little new development in this project. Few new issues are created, but many old are closed. Do not expect new development. The project is in a stable maintenance phase.</v>
+        <v>There is little new development in this project. Few new issues are created, but many old are closed. Do not expect new development but you may get support for your issues. The project is in a stable maintenance phase.</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -24154,7 +24244,7 @@
       </c>
       <c r="F54" t="str">
         <f>Review!M54</f>
-        <v>There is little new development in this project. Few new issues are created, but many old are closed. Do not expect new development. The project is in a stable maintenance phase.</v>
+        <v>There is little new development in this project. Few new issues are created, but many old are closed. Do not expect new development but you may get support for your issues. The project is in a stable maintenance phase.</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -24180,7 +24270,7 @@
       </c>
       <c r="F55" t="str">
         <f>Review!M55</f>
-        <v>There is little new development in this project, but people still fork it. Few new issues are created, but many old are closed. Do not expect new development. The project is in a stable maintenance phase, and is still popular.</v>
+        <v>There is some, but still little, new development in this project. People still fork it. Few new issues are created, but many old are closed. Do not expect new development but you may get support for your issues. The project is in a stable maintenance phase, and is still popular.</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -24310,7 +24400,7 @@
       </c>
       <c r="F60" t="str">
         <f>Review!M60</f>
-        <v>There is little new development in this project, but people still fork it. Some new issues are created but few are closed. Do not expect new development.</v>
+        <v>There is little new development in this project, but people still fork it. Some new issues are created but few are closed. Do not expect new development, but the project is still popular.</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -24778,7 +24868,7 @@
       </c>
       <c r="F78" t="str">
         <f>Review!M78</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve"> Issues are being closed at (roughly) the same rate as they are being created. The project is in a stable maintenance phase, but it's popularity is unknown.</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -24804,7 +24894,7 @@
       </c>
       <c r="F79" t="str">
         <f>Review!M79</f>
-        <v xml:space="preserve">There is little new development in this project. Issues are being closed at (roughly) the same rate as they are being created. </v>
+        <v>There is little new development in this project. Issues are being closed at (roughly) the same rate as they are being created. The project is in a stable maintenance phase, but it's popularity is unknown.</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -24830,7 +24920,7 @@
       </c>
       <c r="F80" t="str">
         <f>Review!M80</f>
-        <v xml:space="preserve">There is little new development in this project. Issues are being closed at (roughly) the same rate as they are being created. </v>
+        <v>There is little new development in this project. Issues are being closed at (roughly) the same rate as they are being created. The project is in a stable maintenance phase, but it's popularity is unknown.</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -24856,7 +24946,7 @@
       </c>
       <c r="F81" t="str">
         <f>Review!M81</f>
-        <v xml:space="preserve">There is little new development in this project, but people still fork it. Issues are being closed at (roughly) the same rate as they are being created. </v>
+        <v>There is little new development in this project, but people still fork it. Issues are being closed at (roughly) the same rate as they are being created. The project is in a stable maintenance phase, and the number of forks indicate that the project is still popular.</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -24960,7 +25050,7 @@
       </c>
       <c r="F85" t="str">
         <f>Review!M85</f>
-        <v>There is little new development in this project. Few issues are created or closed, indicating low levels of support. Do not expect new development.</v>
+        <v>There is little new development in this project. Few issues are created or closed, indicating low levels of support or that the product is of so high quality that no new issues need to be created. Do not expect new development.</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -24986,7 +25076,7 @@
       </c>
       <c r="F86" t="str">
         <f>Review!M86</f>
-        <v>There is little new development in this project. Few issues are created or closed, indicating low levels of support. One of the recent forks may have taken over.</v>
+        <v>There is little new development in this project. Few issues are created or closed, indicating low levels of support or that the product is of so high quality that no new issues need to be created. One of the recent forks may have taken over.</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -25012,7 +25102,7 @@
       </c>
       <c r="F87" t="str">
         <f>Review!M87</f>
-        <v>There is little new development in this project, but people still fork it. Few issues are created or closed, indicating low levels of support. Do not expect new development.</v>
+        <v>There is little new development in this project, but people still fork it. Few issues are created or closed, indicating low levels of support or that the product is of so high quality that no new issues need to be created. Do not expect new development.</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -25636,7 +25726,7 @@
       </c>
       <c r="F111" t="str">
         <f>Review!M111</f>
-        <v>There is little new development in this project. Many new issues are created but few are closed. Do not expect new development.</v>
+        <v>There is little new development in this project; it may be understaffed. Many new issues are created but few are closed. Do not expect new development.</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -25662,7 +25752,7 @@
       </c>
       <c r="F112" t="str">
         <f>Review!M112</f>
-        <v>There is little new development in this project. Many new issues are created but few are closed. One of the recent forks may have taken over.</v>
+        <v>There is little new development in this project; it may be understaffed. Many new issues are created but few are closed. One of the recent forks may have taken over.</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -25844,7 +25934,7 @@
       </c>
       <c r="F119" t="str">
         <f>Review!M119</f>
-        <v xml:space="preserve">There is little new development in this project. Issues are being closed at (roughly) the same rate as they are being created. </v>
+        <v>There is little new development in this project. Issues are being closed at (roughly) the same rate as they are being created. The developers may be unwilling to invest in more resources for the component; this indicates that the component is in the latter half of its lifecycle.</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -25870,7 +25960,7 @@
       </c>
       <c r="F120" t="str">
         <f>Review!M120</f>
-        <v xml:space="preserve">There is little new development in this project. Issues are being closed at (roughly) the same rate as they are being created. </v>
+        <v>There is little new development in this project. Issues are being closed at (roughly) the same rate as they are being created. The developers may be unwilling to invest in more resources for the component; this indicates that the component is in the latter half of its lifecycle.</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -25896,7 +25986,7 @@
       </c>
       <c r="F121" t="str">
         <f>Review!M121</f>
-        <v xml:space="preserve">There is little new development in this project, but people still fork it. Issues are being closed at (roughly) the same rate as they are being created. </v>
+        <v>There is little new development in this project, but people still fork it. Issues are being closed at (roughly) the same rate as they are being created. The developers may be unwilling to invest in more resources for the component; this indicates that the component is in the latter half of its lifecycle.</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -26390,7 +26480,7 @@
       </c>
       <c r="F140" t="str">
         <f>Review!M140</f>
-        <v>There is ongoing development by a small team of developers. Many forks indicate community interest. Component usage is generating issues, but few issues are being closed. This component is at risk of becoming phased out.</v>
+        <v>There is ongoing development by a small team of developers. Many forks indicate community interest. Component usage is generating issues, but few issues are being closed. This component is at risk of becoming phased out. Some of the forks may have continued the project.</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -26676,7 +26766,7 @@
       </c>
       <c r="F151" t="str">
         <f>Review!M151</f>
-        <v>There is ongoing development by a small team of developers. Component usage is generating many new issues, but few issues are being closed. This component is at risk of becoming phased out.</v>
+        <v>There is ongoing development by a small team of developers. Component usage is generating many new issues, but few issues are being closed. This component is understaffed and/or at risk of becoming phased out.</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -26702,7 +26792,7 @@
       </c>
       <c r="F152" t="str">
         <f>Review!M152</f>
-        <v>There is ongoing development by a small team of developers. Component usage is generating many new issues, but few issues are being closed. This component is at risk of becoming phased out.</v>
+        <v>There is ongoing development by a small team of developers. Component usage is generating many new issues, but few issues are being closed. This component is understaffed and/or at risk of becoming phased out.</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -26728,7 +26818,7 @@
       </c>
       <c r="F153" t="str">
         <f>Review!M153</f>
-        <v>There is ongoing development by a small team of developers. Many forks indicate community interest. Component usage is generating many new issues, but few issues are being closed. This component is at risk of becoming phased out.</v>
+        <v>There is ongoing development by a small team of developers. Many forks indicate community interest. Component usage is generating many new issues, but few issues are being closed. This component is understaffed and/or at risk of becoming phased out.</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -27118,7 +27208,7 @@
       </c>
       <c r="F168" t="str">
         <f>Review!M168</f>
-        <v xml:space="preserve">  </v>
+        <v>There is some new development in this project, however the number of forks is unknown. Eagerness to close off more issues than the issues created (at a higher rate). The project is probably moving to maintenance phase.</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -27378,7 +27468,7 @@
       </c>
       <c r="F178" t="str">
         <f>Review!M178</f>
-        <v>There is ongoing development by a small team of developers. This component may recently have had a release. Component usage is generating issues, but few issues are being closed. Development is likely to continue.</v>
+        <v>There is ongoing development by a small team of developers. This component may recently have had a release. Component usage is generating issues, but few issues are being closed. Development is likely to continue, but you should also check recent forks.</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -27404,7 +27494,7 @@
       </c>
       <c r="F179" t="str">
         <f>Review!M179</f>
-        <v>There is ongoing development by a small team of developers. This component may recently have had a release. Component usage is generating issues, but few issues are being closed. Development is likely to continue.</v>
+        <v>There is ongoing development by a small team of developers. This component may recently have had a release. Component usage is generating issues, but few issues are being closed. Development is likely to continue, but you should also check recent forks.</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -27430,7 +27520,7 @@
       </c>
       <c r="F180" t="str">
         <f>Review!M180</f>
-        <v>There is ongoing development by a small team of developers. This component may recently have had a release. Component usage is generating issues, but few issues are being closed. Development is likely to continue.</v>
+        <v>There is ongoing development by a small team of developers. This component may recently have had a release. Component usage is generating issues, but few issues are being closed. Development is likely to continue, but you should also check recent forks.</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -29120,7 +29210,7 @@
       </c>
       <c r="F245" t="str">
         <f>Review!M245</f>
-        <v>There is a high level of ongoing development activity. Few issues are created or closed. The component is in the early half of its lifecycle. Development is likely to continue. Do not expect too much influence on the development agenda of the component.</v>
+        <v>There is a high level of ongoing development activity. The project may be working on a new release. Few issues are created or closed, indicating low levels of support. The component is in the early half of its lifecycle. Development is likely to continue. Do not expect too much influence on the development agenda of the component.</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -29146,7 +29236,7 @@
       </c>
       <c r="F246" t="str">
         <f>Review!M246</f>
-        <v>There is a high level of ongoing development activity. Few issues are created or closed. The component is in the early half of its lifecycle. Development is likely to continue. Do not expect too much influence on the development agenda of the component.</v>
+        <v>There is a high level of ongoing development activity. The project may be working on a new release. Few issues are created or closed, indicating low levels of support. The component is in the early half of its lifecycle. Development is likely to continue. Do not expect too much influence on the development agenda of the component.</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -29172,7 +29262,7 @@
       </c>
       <c r="F247" t="str">
         <f>Review!M247</f>
-        <v>There is a high level of ongoing development activity. Few issues are created or closed. The component is in the early half of its lifecycle. Development is likely to continue. Do not expect too much influence on the development agenda of the component.</v>
+        <v>There is a high level of ongoing development activity. The project may be working on a new release. Few issues are created or closed, indicating low levels of support. The component is in the early half of its lifecycle. Development is likely to continue. Do not expect too much influence on the development agenda of the component.</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -29224,7 +29314,7 @@
       </c>
       <c r="F249" t="str">
         <f>Review!M249</f>
-        <v>There is a high level of ongoing development activity. Issues are being closed, but not many new issues are created. Development is likely to continue, but do not expect too much influence on the development agenda of the component.</v>
+        <v>There is a high level of ongoing development activity. Issues are being closed, but not many new issues are created. Development is likely to continue.</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -29250,7 +29340,7 @@
       </c>
       <c r="F250" t="str">
         <f>Review!M250</f>
-        <v>There is a high level of ongoing development activity. Issues are being closed, but not many new issues are created. Development is likely to continue, but do not expect too much influence on the development agenda of the component.</v>
+        <v>There is a high level of ongoing development activity. Issues are being closed, but not many new issues are created. Development is likely to continue.</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -29276,7 +29366,7 @@
       </c>
       <c r="F251" t="str">
         <f>Review!M251</f>
-        <v>There is a high level of ongoing development activity. Issues are being closed, but not many new issues are created. Development is likely to continue, but do not expect too much influence on the development agenda of the component.</v>
+        <v>There is a high level of ongoing development activity. Issues are being closed, but not many new issues are created. Development is likely to continue.</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -29328,7 +29418,7 @@
       </c>
       <c r="F253" t="str">
         <f>Review!M253</f>
-        <v>There is a high level of ongoing development activity. Few new issues are created, but many old are closed. The project may recently have had a major release. Development is likely to continue, but do not expect too much influence on the development agenda of the component.</v>
+        <v>There is a high level of ongoing development activity. Few new issues are created, but many old are closed. The project may recently have had a major release. Development is likely to continue.</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -29354,7 +29444,7 @@
       </c>
       <c r="F254" t="str">
         <f>Review!M254</f>
-        <v>There is a high level of ongoing development activity. Few new issues are created, but many old are closed. The project may recently have had a major release. Development is likely to continue, but do not expect too much influence on the development agenda of the component.</v>
+        <v>There is a high level of ongoing development activity. Few new issues are created, but many old are closed. The project may recently have had a major release. Development is likely to continue.</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -29380,7 +29470,7 @@
       </c>
       <c r="F255" t="str">
         <f>Review!M255</f>
-        <v>There is a high level of ongoing development activity. Few new issues are created, but many old are closed. The project may recently have had a major release. Development is likely to continue, but do not expect too much influence on the development agenda of the component.</v>
+        <v>There is a high level of ongoing development activity. Few new issues are created, but many old are closed. The project may recently have had a major release. Development is likely to continue.</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -29614,7 +29704,7 @@
       </c>
       <c r="F264" t="str">
         <f>Review!M264</f>
-        <v>There is a high level of ongoing development activity. Component usage is generating issues, and issues are closed at (rouughly) the same pace as they are being created. This component is in the middle of its lifecycle.</v>
+        <v>There is a high level of ongoing development activity. There are many forks, implying that new development is either easy on the component or that it's current direction is not what users want. Component usage is generating issues, and issues are closed at (rouughly) the same pace as they are being created. This component is in the middle of its lifecycle. More functionality may be available in one of the forks.</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -30446,7 +30536,7 @@
       </c>
       <c r="F296" t="str">
         <f>Review!M296</f>
-        <v xml:space="preserve">  </v>
+        <v>There is a lot of new development in this project, however the number of forks is unknown. Some new issues are created, however the level of support (response) is unknown. Not enough is known about support, however development is on-going.</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -31018,7 +31108,7 @@
       </c>
       <c r="F318" t="str">
         <f>Review!M318</f>
-        <v xml:space="preserve">  </v>
+        <v>There is a lot of new development in this project, however the number of forks is unknown. Many issues are being closed at (roughly) the same rate as they are being created showing just enough support. The project is in stable development phase.</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -31304,7 +31394,7 @@
       </c>
       <c r="F329" t="str">
         <f>Review!M329</f>
-        <v>There is a high level of ongoing development activity. The component may recently have had a release. Issues are being closed, but not many new issues are created. Development is likely to continue, but do not expect too much influence on the development agenda of the component.</v>
+        <v>There is a high level of ongoing development activity. The component may recently have had a release. Issues are being closed, but not many new issues are created. Development is likely to continue.</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -31330,7 +31420,7 @@
       </c>
       <c r="F330" t="str">
         <f>Review!M330</f>
-        <v>There is a high level of ongoing development activity. The component may recently have had a release. Issues are being closed, but not many new issues are created. Development is likely to continue, but do not expect too much influence on the development agenda of the component.</v>
+        <v>There is a high level of ongoing development activity. The component may recently have had a release. Issues are being closed, but not many new issues are created. Development is likely to continue.</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -31356,7 +31446,7 @@
       </c>
       <c r="F331" t="str">
         <f>Review!M331</f>
-        <v>There is a high level of ongoing development activity. The component may recently have had a release. Issues are being closed, but not many new issues are created. Development is likely to continue, but do not expect too much influence on the development agenda of the component.</v>
+        <v>There is a high level of ongoing development activity. The component may recently have had a release. Issues are being closed, but not many new issues are created. Development is likely to continue.</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -31408,7 +31498,7 @@
       </c>
       <c r="F333" t="str">
         <f>Review!M333</f>
-        <v>There is a high level of ongoing development activity. The component may recently have had a release. Few new issues are created, but many old are closed. Development is likely to continue, but do not expect too much influence on the development agenda of the component.</v>
+        <v>There is a high level of ongoing development activity. The component may recently have had a release. Few new issues are created, but many old are closed. Development is likely to continue, but it is unclear how well known or popular the product is.</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -31434,7 +31524,7 @@
       </c>
       <c r="F334" t="str">
         <f>Review!M334</f>
-        <v>There is a high level of ongoing development activity. The component may recently have had a release. Few new issues are created, but many old are closed. Development is likely to continue, but do not expect too much influence on the development agenda of the component.</v>
+        <v>There is a high level of ongoing development activity. The component may recently have had a release. Few new issues are created, but many old are closed. Development is likely to continue, but it is unclear how well known or popular the product is.</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -31460,7 +31550,7 @@
       </c>
       <c r="F335" t="str">
         <f>Review!M335</f>
-        <v>There is a high level of ongoing development activity. The component may recently have had a release. Few new issues are created, but many old are closed. Development is likely to continue, but do not expect too much influence on the development agenda of the component.</v>
+        <v>There is a high level of ongoing development activity. The component may recently have had a release. Few new issues are created, but many old are closed. Development is likely to continue, but it is unclear how well known or popular the product is.</v>
       </c>
     </row>
     <row r="336" spans="1:6">
